--- a/results/comparative_analysis_results.xlsx
+++ b/results/comparative_analysis_results.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Comparative Metrics" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Performance Summary" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Summary Statistics" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Feature Summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Best Features" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -52,6 +52,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -427,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,25 +464,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Feature Combination</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Jaisalmer</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Jodhpur</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>New Delhi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Shimla</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Srinagar</t>
         </is>
@@ -470,92 +496,1707 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Mean Absolute Error</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>52.29950545035003</v>
+          <t>Mean Absolute Error (All)</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>51.37983425445138</v>
+        <v>35.15914768892559</v>
       </c>
       <c r="D2" t="n">
-        <v>90.41512828519492</v>
+        <v>54.21960243143332</v>
       </c>
       <c r="E2" t="n">
-        <v>75.97301895583506</v>
+        <v>68.62596081217902</v>
       </c>
       <c r="F2" t="n">
-        <v>49.81063790199084</v>
+        <v>59.65295311394762</v>
+      </c>
+      <c r="G2" t="n">
+        <v>34.8607097413032</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Mean Squared Error</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6829.566400402859</v>
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>11777.17587546544</v>
+        <v>33.84681523317307</v>
       </c>
       <c r="D3" t="n">
-        <v>17719.40960459464</v>
+        <v>53.9487478689601</v>
       </c>
       <c r="E3" t="n">
-        <v>14058.55333803131</v>
+        <v>69.73589307189862</v>
       </c>
       <c r="F3" t="n">
-        <v>7258.930315533662</v>
+        <v>61.81006828089448</v>
+      </c>
+      <c r="G3" t="n">
+        <v>34.46588194818874</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Root Mean Squared Error</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>82.64119070053903</v>
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>108.5226975128495</v>
+        <v>35.87768044632794</v>
       </c>
       <c r="D4" t="n">
-        <v>133.1142727305928</v>
+        <v>56.51006905635266</v>
       </c>
       <c r="E4" t="n">
-        <v>118.568770500631</v>
+        <v>69.47813388439459</v>
       </c>
       <c r="F4" t="n">
-        <v>85.19935630938571</v>
+        <v>61.76042816465662</v>
+      </c>
+      <c r="G4" t="n">
+        <v>35.87251596014961</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>R² Score</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9228927989621292</v>
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8088440402838453</v>
+        <v>36.70110937996662</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7231596034697774</v>
+        <v>53.56727271541721</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8095881044179302</v>
+        <v>67.75917163907873</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9180451925722937</v>
+        <v>60.87937690753094</v>
+      </c>
+      <c r="G5" t="n">
+        <v>33.59776544315747</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>38.05835838682737</v>
+      </c>
+      <c r="D6" t="n">
+        <v>54.92129261941468</v>
+      </c>
+      <c r="E6" t="n">
+        <v>68.22831705301645</v>
+      </c>
+      <c r="F6" t="n">
+        <v>60.92774164625366</v>
+      </c>
+      <c r="G6" t="n">
+        <v>36.16455809677689</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>37.31345447295774</v>
+      </c>
+      <c r="D7" t="n">
+        <v>55.47377722148507</v>
+      </c>
+      <c r="E7" t="n">
+        <v>69.3799298531908</v>
+      </c>
+      <c r="F7" t="n">
+        <v>63.16700414553159</v>
+      </c>
+      <c r="G7" t="n">
+        <v>33.87963511484962</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>33.96424857883014</v>
+      </c>
+      <c r="D8" t="n">
+        <v>53.2004561063257</v>
+      </c>
+      <c r="E8" t="n">
+        <v>66.07117096704192</v>
+      </c>
+      <c r="F8" t="n">
+        <v>61.51594323577166</v>
+      </c>
+      <c r="G8" t="n">
+        <v>34.73115723574664</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>35.94219822122719</v>
+      </c>
+      <c r="D9" t="n">
+        <v>54.97093963026045</v>
+      </c>
+      <c r="E9" t="n">
+        <v>68.92218628954474</v>
+      </c>
+      <c r="F9" t="n">
+        <v>62.61224760076664</v>
+      </c>
+      <c r="G9" t="n">
+        <v>35.27669546474907</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Mean Absolute Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>68.95288981206585</v>
+      </c>
+      <c r="D10" t="n">
+        <v>105.4368460850459</v>
+      </c>
+      <c r="E10" t="n">
+        <v>133.744216092761</v>
+      </c>
+      <c r="F10" t="n">
+        <v>119.23858440781</v>
+      </c>
+      <c r="G10" t="n">
+        <v>65.31144619213279</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>67.36300448845961</v>
+      </c>
+      <c r="D11" t="n">
+        <v>105.4355388196829</v>
+      </c>
+      <c r="E11" t="n">
+        <v>134.5352236392059</v>
+      </c>
+      <c r="F11" t="n">
+        <v>123.2862913366425</v>
+      </c>
+      <c r="G11" t="n">
+        <v>68.75228647133851</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>69.13236875932736</v>
+      </c>
+      <c r="D12" t="n">
+        <v>108.0214746719487</v>
+      </c>
+      <c r="E12" t="n">
+        <v>135.62163340284</v>
+      </c>
+      <c r="F12" t="n">
+        <v>122.6901844592854</v>
+      </c>
+      <c r="G12" t="n">
+        <v>69.55045749322389</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>68.96801786958805</v>
+      </c>
+      <c r="D13" t="n">
+        <v>106.4882622456439</v>
+      </c>
+      <c r="E13" t="n">
+        <v>134.1201089531114</v>
+      </c>
+      <c r="F13" t="n">
+        <v>119.3508263623413</v>
+      </c>
+      <c r="G13" t="n">
+        <v>67.22741061215362</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>73.0667718039068</v>
+      </c>
+      <c r="D14" t="n">
+        <v>107.3252408121303</v>
+      </c>
+      <c r="E14" t="n">
+        <v>134.7471132250655</v>
+      </c>
+      <c r="F14" t="n">
+        <v>122.179221931026</v>
+      </c>
+      <c r="G14" t="n">
+        <v>71.59817138500952</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>75.13607163610088</v>
+      </c>
+      <c r="D15" t="n">
+        <v>107.4972405864535</v>
+      </c>
+      <c r="E15" t="n">
+        <v>137.0861457514066</v>
+      </c>
+      <c r="F15" t="n">
+        <v>124.1925860674184</v>
+      </c>
+      <c r="G15" t="n">
+        <v>67.65448730086831</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>68.46052887399466</v>
+      </c>
+      <c r="D16" t="n">
+        <v>105.5323170729887</v>
+      </c>
+      <c r="E16" t="n">
+        <v>131.5042845271406</v>
+      </c>
+      <c r="F16" t="n">
+        <v>119.1916147623202</v>
+      </c>
+      <c r="G16" t="n">
+        <v>67.8831179812093</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>70.02271701279371</v>
+      </c>
+      <c r="D17" t="n">
+        <v>107.0611257304028</v>
+      </c>
+      <c r="E17" t="n">
+        <v>135.0425437262772</v>
+      </c>
+      <c r="F17" t="n">
+        <v>125.7877381267366</v>
+      </c>
+      <c r="G17" t="n">
+        <v>69.78021804707535</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>6100.426762548649</v>
+      </c>
+      <c r="D18" t="n">
+        <v>11194.55072183782</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16422.24082636627</v>
+      </c>
+      <c r="F18" t="n">
+        <v>13457.63868088345</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6315.633627791525</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>6276.833991550429</v>
+      </c>
+      <c r="D19" t="n">
+        <v>12076.64929203537</v>
+      </c>
+      <c r="E19" t="n">
+        <v>17089.80605634955</v>
+      </c>
+      <c r="F19" t="n">
+        <v>14241.9120110255</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6444.343006221001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>6822.678146763588</v>
+      </c>
+      <c r="D20" t="n">
+        <v>11967.39049067377</v>
+      </c>
+      <c r="E20" t="n">
+        <v>17028.8563689049</v>
+      </c>
+      <c r="F20" t="n">
+        <v>14423.56998359497</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6597.221926614927</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>6212.285326845057</v>
+      </c>
+      <c r="D21" t="n">
+        <v>12085.84745414155</v>
+      </c>
+      <c r="E21" t="n">
+        <v>16756.16366047525</v>
+      </c>
+      <c r="F21" t="n">
+        <v>13537.03463268004</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6361.032929071547</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>6335.147290362707</v>
+      </c>
+      <c r="D22" t="n">
+        <v>12142.74318895176</v>
+      </c>
+      <c r="E22" t="n">
+        <v>17221.16889188847</v>
+      </c>
+      <c r="F22" t="n">
+        <v>14107.96341708948</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6255.033110148001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>6320.583112605092</v>
+      </c>
+      <c r="D23" t="n">
+        <v>12163.38453007018</v>
+      </c>
+      <c r="E23" t="n">
+        <v>17004.48890527768</v>
+      </c>
+      <c r="F23" t="n">
+        <v>14148.70631025988</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6453.437242280751</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>6374.989102457471</v>
+      </c>
+      <c r="D24" t="n">
+        <v>11270.75530312398</v>
+      </c>
+      <c r="E24" t="n">
+        <v>16154.12170568053</v>
+      </c>
+      <c r="F24" t="n">
+        <v>13085.39111367146</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6561.793115387328</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>6520.865757263481</v>
+      </c>
+      <c r="D25" t="n">
+        <v>12454.80899683769</v>
+      </c>
+      <c r="E25" t="n">
+        <v>17136.76374353049</v>
+      </c>
+      <c r="F25" t="n">
+        <v>14650.59808496454</v>
+      </c>
+      <c r="G25" t="n">
+        <v>6459.966131851416</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>12446.06810382608</v>
+      </c>
+      <c r="D26" t="n">
+        <v>22758.97221206025</v>
+      </c>
+      <c r="E26" t="n">
+        <v>33268.8442779171</v>
+      </c>
+      <c r="F26" t="n">
+        <v>27454.36797609515</v>
+      </c>
+      <c r="G26" t="n">
+        <v>12847.57979891915</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>12938.29562911424</v>
+      </c>
+      <c r="D27" t="n">
+        <v>24550.86947187588</v>
+      </c>
+      <c r="E27" t="n">
+        <v>34666.14448502759</v>
+      </c>
+      <c r="F27" t="n">
+        <v>29079.19495189453</v>
+      </c>
+      <c r="G27" t="n">
+        <v>13283.94233196945</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>13559.62376478935</v>
+      </c>
+      <c r="D28" t="n">
+        <v>24179.57694506985</v>
+      </c>
+      <c r="E28" t="n">
+        <v>34520.48531468322</v>
+      </c>
+      <c r="F28" t="n">
+        <v>29434.58922275947</v>
+      </c>
+      <c r="G28" t="n">
+        <v>13202.76488765772</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>12733.11269413704</v>
+      </c>
+      <c r="D29" t="n">
+        <v>24609.20053625944</v>
+      </c>
+      <c r="E29" t="n">
+        <v>34004.94686076825</v>
+      </c>
+      <c r="F29" t="n">
+        <v>27599.48765696576</v>
+      </c>
+      <c r="G29" t="n">
+        <v>13080.96470278204</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>13029.93474570269</v>
+      </c>
+      <c r="D30" t="n">
+        <v>24682.01449376938</v>
+      </c>
+      <c r="E30" t="n">
+        <v>34973.31841069138</v>
+      </c>
+      <c r="F30" t="n">
+        <v>28777.42150699761</v>
+      </c>
+      <c r="G30" t="n">
+        <v>12884.24157226981</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>13027.5842893786</v>
+      </c>
+      <c r="D31" t="n">
+        <v>24734.75081190783</v>
+      </c>
+      <c r="E31" t="n">
+        <v>34509.62547314659</v>
+      </c>
+      <c r="F31" t="n">
+        <v>28826.15099183342</v>
+      </c>
+      <c r="G31" t="n">
+        <v>13304.90687679367</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>12959.47197464072</v>
+      </c>
+      <c r="D32" t="n">
+        <v>22965.88893627776</v>
+      </c>
+      <c r="E32" t="n">
+        <v>32819.65191876438</v>
+      </c>
+      <c r="F32" t="n">
+        <v>26678.01057339492</v>
+      </c>
+      <c r="G32" t="n">
+        <v>13354.45135768373</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>13433.92484148061</v>
+      </c>
+      <c r="D33" t="n">
+        <v>25279.24633068416</v>
+      </c>
+      <c r="E33" t="n">
+        <v>34760.31442339295</v>
+      </c>
+      <c r="F33" t="n">
+        <v>29911.84378661814</v>
+      </c>
+      <c r="G33" t="n">
+        <v>13310.74253851978</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Non-zero Values Percentage</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="D34" t="n">
+        <v>48.99267399267399</v>
+      </c>
+      <c r="E34" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="F34" t="n">
+        <v>48.94688644688645</v>
+      </c>
+      <c r="G34" t="n">
+        <v>48.46611721611722</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="D35" t="n">
+        <v>48.99267399267399</v>
+      </c>
+      <c r="E35" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="F35" t="n">
+        <v>48.94688644688645</v>
+      </c>
+      <c r="G35" t="n">
+        <v>48.46611721611722</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="D36" t="n">
+        <v>48.99267399267399</v>
+      </c>
+      <c r="E36" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="F36" t="n">
+        <v>48.94688644688645</v>
+      </c>
+      <c r="G36" t="n">
+        <v>48.46611721611722</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="D37" t="n">
+        <v>48.99267399267399</v>
+      </c>
+      <c r="E37" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="F37" t="n">
+        <v>48.94688644688645</v>
+      </c>
+      <c r="G37" t="n">
+        <v>48.46611721611722</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="D38" t="n">
+        <v>48.99267399267399</v>
+      </c>
+      <c r="E38" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="F38" t="n">
+        <v>48.94688644688645</v>
+      </c>
+      <c r="G38" t="n">
+        <v>48.46611721611722</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="D39" t="n">
+        <v>48.99267399267399</v>
+      </c>
+      <c r="E39" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="F39" t="n">
+        <v>48.94688644688645</v>
+      </c>
+      <c r="G39" t="n">
+        <v>48.46611721611722</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="D40" t="n">
+        <v>48.99267399267399</v>
+      </c>
+      <c r="E40" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="F40" t="n">
+        <v>48.94688644688645</v>
+      </c>
+      <c r="G40" t="n">
+        <v>48.46611721611722</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="D41" t="n">
+        <v>48.99267399267399</v>
+      </c>
+      <c r="E41" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="F41" t="n">
+        <v>48.94688644688645</v>
+      </c>
+      <c r="G41" t="n">
+        <v>48.46611721611722</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>78.10522877854369</v>
+      </c>
+      <c r="D42" t="n">
+        <v>105.8043038908995</v>
+      </c>
+      <c r="E42" t="n">
+        <v>128.1492911660703</v>
+      </c>
+      <c r="F42" t="n">
+        <v>116.0070630646404</v>
+      </c>
+      <c r="G42" t="n">
+        <v>79.4709609089479</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>79.22647279508554</v>
+      </c>
+      <c r="D43" t="n">
+        <v>109.8938091615509</v>
+      </c>
+      <c r="E43" t="n">
+        <v>130.7279849777757</v>
+      </c>
+      <c r="F43" t="n">
+        <v>119.3394821969054</v>
+      </c>
+      <c r="G43" t="n">
+        <v>80.27666539051683</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>82.59950451887461</v>
+      </c>
+      <c r="D44" t="n">
+        <v>109.395568880434</v>
+      </c>
+      <c r="E44" t="n">
+        <v>130.4946603080176</v>
+      </c>
+      <c r="F44" t="n">
+        <v>120.098168110904</v>
+      </c>
+      <c r="G44" t="n">
+        <v>81.22328438702124</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>78.81805203660554</v>
+      </c>
+      <c r="D45" t="n">
+        <v>109.9356514245563</v>
+      </c>
+      <c r="E45" t="n">
+        <v>129.4456011630957</v>
+      </c>
+      <c r="F45" t="n">
+        <v>116.3487629185632</v>
+      </c>
+      <c r="G45" t="n">
+        <v>79.75608396273947</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>79.5936385043598</v>
+      </c>
+      <c r="D46" t="n">
+        <v>110.1941159452344</v>
+      </c>
+      <c r="E46" t="n">
+        <v>131.229451312914</v>
+      </c>
+      <c r="F46" t="n">
+        <v>118.7769481721494</v>
+      </c>
+      <c r="G46" t="n">
+        <v>79.08876728175753</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>79.50209502022631</v>
+      </c>
+      <c r="D47" t="n">
+        <v>110.2877351751779</v>
+      </c>
+      <c r="E47" t="n">
+        <v>130.40126113377</v>
+      </c>
+      <c r="F47" t="n">
+        <v>118.9483346258361</v>
+      </c>
+      <c r="G47" t="n">
+        <v>80.33328850657584</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>79.84352887026894</v>
+      </c>
+      <c r="D48" t="n">
+        <v>106.1638135294884</v>
+      </c>
+      <c r="E48" t="n">
+        <v>127.0988658709453</v>
+      </c>
+      <c r="F48" t="n">
+        <v>114.3913944039125</v>
+      </c>
+      <c r="G48" t="n">
+        <v>81.00489562605046</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>80.75187773212139</v>
+      </c>
+      <c r="D49" t="n">
+        <v>111.6011155716541</v>
+      </c>
+      <c r="E49" t="n">
+        <v>130.9074625204021</v>
+      </c>
+      <c r="F49" t="n">
+        <v>121.0396550101021</v>
+      </c>
+      <c r="G49" t="n">
+        <v>80.37391449874403</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>111.5619473827258</v>
+      </c>
+      <c r="D50" t="n">
+        <v>150.8607709514314</v>
+      </c>
+      <c r="E50" t="n">
+        <v>182.3974897796489</v>
+      </c>
+      <c r="F50" t="n">
+        <v>165.6935966659398</v>
+      </c>
+      <c r="G50" t="n">
+        <v>113.3471649355163</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>113.7466290890162</v>
+      </c>
+      <c r="D51" t="n">
+        <v>156.6871707316074</v>
+      </c>
+      <c r="E51" t="n">
+        <v>186.1884649623268</v>
+      </c>
+      <c r="F51" t="n">
+        <v>170.5262295129243</v>
+      </c>
+      <c r="G51" t="n">
+        <v>115.2559861003733</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>116.4457975402691</v>
+      </c>
+      <c r="D52" t="n">
+        <v>155.4978358211774</v>
+      </c>
+      <c r="E52" t="n">
+        <v>185.7968926400095</v>
+      </c>
+      <c r="F52" t="n">
+        <v>171.565116567324</v>
+      </c>
+      <c r="G52" t="n">
+        <v>114.9032849297953</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>112.8410948818605</v>
+      </c>
+      <c r="D53" t="n">
+        <v>156.8731989100096</v>
+      </c>
+      <c r="E53" t="n">
+        <v>184.4043027176108</v>
+      </c>
+      <c r="F53" t="n">
+        <v>166.1309352798742</v>
+      </c>
+      <c r="G53" t="n">
+        <v>114.372045110604</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>114.1487395712396</v>
+      </c>
+      <c r="D54" t="n">
+        <v>157.1051065171638</v>
+      </c>
+      <c r="E54" t="n">
+        <v>187.0115461961945</v>
+      </c>
+      <c r="F54" t="n">
+        <v>169.6390919186896</v>
+      </c>
+      <c r="G54" t="n">
+        <v>113.508773107059</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>114.1384435209216</v>
+      </c>
+      <c r="D55" t="n">
+        <v>157.2728546568283</v>
+      </c>
+      <c r="E55" t="n">
+        <v>185.7676653057431</v>
+      </c>
+      <c r="F55" t="n">
+        <v>169.7826581009775</v>
+      </c>
+      <c r="G55" t="n">
+        <v>115.3468979938068</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>113.8396766274427</v>
+      </c>
+      <c r="D56" t="n">
+        <v>151.5450063059742</v>
+      </c>
+      <c r="E56" t="n">
+        <v>181.1619494230629</v>
+      </c>
+      <c r="F56" t="n">
+        <v>163.334045971423</v>
+      </c>
+      <c r="G56" t="n">
+        <v>115.5614613860682</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>115.9048093975423</v>
+      </c>
+      <c r="D57" t="n">
+        <v>158.9944852209792</v>
+      </c>
+      <c r="E57" t="n">
+        <v>186.441182208741</v>
+      </c>
+      <c r="F57" t="n">
+        <v>172.9504084603969</v>
+      </c>
+      <c r="G57" t="n">
+        <v>115.3721913570154</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>R² Score (All)</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.9311249345538394</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.8183006597292993</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.7434260077656774</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.8177270143184987</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.9286952050439201</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.9291332608700794</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.8039832715427452</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.7329962571643683</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.8071046573905758</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.927242049845453</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.922970568754093</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.805756656881689</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.733948508735786</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.8046442449944458</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.9255160155764881</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.9298620284922625</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.8038339756908682</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.7382089417421425</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.8166516594566131</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.9281826376500997</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.928474891803716</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.8029104980332016</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.7309439010028798</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.80891888429349</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.9293793972785344</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.9286393243484002</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.8025754673422243</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.7343292154547754</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.8083670542912459</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.9271393740609254</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.9280250695990849</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.8170637791711283</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.7476149850140348</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.8227688108102404</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.9259160140990441</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.926378092340295</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.7978453415277865</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.7322626105570941</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.8015693303789259</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.9270656615627718</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>R² Score (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.8429008988362652</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.6448039526613595</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.5359548208950975</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.6734208950899219</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.8378328624186869</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.8366878120087032</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.6168380665926478</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.5164648013604454</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.6540930220224253</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.8323249252009355</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.8288451671807923</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.6226327763316928</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.5184965051138453</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.6498654855163836</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.8333495784030356</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.8392777106329238</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.6159277019543397</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.5256874111815151</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.6716946468104195</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.8348869875997331</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.8355311075195916</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.6147913048597069</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.5121802347503084</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.6576827204487696</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.8373701032892645</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.8355607758913824</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.6139682566315429</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.5186479818849895</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.6571030665461823</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.8320603025811075</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.8364205159582245</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.6415746327304985</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.5422203090200919</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.6826559321479564</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.8314349329181325</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.8304317877668537</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.6054703923931715</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.5151512869639125</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.6441883791114966</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.8319866425943373</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A66:A73"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -566,7 +2207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,98 +2223,1977 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>City</t>
+          <t>Feature Combination</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Value</t>
+          <t>Mean</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Count</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Best R² Score</t>
+          <t>Mean Absolute Error (All)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jaisalmer</t>
+          <t>Precipitable Water</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9228927989621292</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Best R² Score achieved by Jaisalmer</t>
-        </is>
+        <v>50.50367475755775</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.05067714610748</v>
+      </c>
+      <c r="E2" t="n">
+        <v>34.8607097413032</v>
+      </c>
+      <c r="F2" t="n">
+        <v>68.62596081217902</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Worst R² Score</t>
+          <t>Mean Absolute Error (All)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>New Delhi</t>
+          <t>Pressure</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7231596034697774</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Lowest R² Score from New Delhi</t>
-        </is>
+        <v>50.761481280623</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.15480370456869</v>
+      </c>
+      <c r="E3" t="n">
+        <v>33.84681523317307</v>
+      </c>
+      <c r="F3" t="n">
+        <v>69.73589307189862</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Best RMSE</t>
+          <t>Mean Absolute Error (All)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jaisalmer</t>
+          <t>Relative Humidity</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>82.64119070053903</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Best RMSE achieved by Jaisalmer</t>
-        </is>
+        <v>51.89976550237628</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.33840392124528</v>
+      </c>
+      <c r="E4" t="n">
+        <v>35.87251596014961</v>
+      </c>
+      <c r="F4" t="n">
+        <v>69.47813388439459</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Worst RMSE</t>
+          <t>Mean Absolute Error (All)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>New Delhi</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>133.1142727305928</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Highest RMSE from New Delhi</t>
-        </is>
+        <v>50.50093921703019</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.9257624890157</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33.59776544315747</v>
+      </c>
+      <c r="F5" t="n">
+        <v>67.75917163907873</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mean Absolute Error (All)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>51.66005356045781</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.10806125124425</v>
+      </c>
+      <c r="E6" t="n">
+        <v>36.16455809677689</v>
+      </c>
+      <c r="F6" t="n">
+        <v>68.22831705301645</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mean Absolute Error (All)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>51.84276016160296</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15.67441938898888</v>
+      </c>
+      <c r="E7" t="n">
+        <v>33.87963511484962</v>
+      </c>
+      <c r="F7" t="n">
+        <v>69.3799298531908</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mean Absolute Error (All)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>49.89659522474322</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.92792537840772</v>
+      </c>
+      <c r="E8" t="n">
+        <v>33.96424857883014</v>
+      </c>
+      <c r="F8" t="n">
+        <v>66.07117096704192</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mean Absolute Error (All)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>51.54485344130961</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15.36467369357669</v>
+      </c>
+      <c r="E9" t="n">
+        <v>35.27669546474907</v>
+      </c>
+      <c r="F9" t="n">
+        <v>68.92218628954474</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mean Absolute Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>98.53679651796311</v>
+      </c>
+      <c r="D10" t="n">
+        <v>30.39271516020599</v>
+      </c>
+      <c r="E10" t="n">
+        <v>65.31144619213279</v>
+      </c>
+      <c r="F10" t="n">
+        <v>133.744216092761</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mean Absolute Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>99.87446895106589</v>
+      </c>
+      <c r="D11" t="n">
+        <v>30.84636285226188</v>
+      </c>
+      <c r="E11" t="n">
+        <v>67.36300448845961</v>
+      </c>
+      <c r="F11" t="n">
+        <v>134.5352236392059</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mean Absolute Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>101.0032237573251</v>
+      </c>
+      <c r="D12" t="n">
+        <v>30.50836893682307</v>
+      </c>
+      <c r="E12" t="n">
+        <v>69.13236875932736</v>
+      </c>
+      <c r="F12" t="n">
+        <v>135.62163340284</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mean Absolute Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>99.23092520856767</v>
+      </c>
+      <c r="D13" t="n">
+        <v>30.061615944583</v>
+      </c>
+      <c r="E13" t="n">
+        <v>67.22741061215362</v>
+      </c>
+      <c r="F13" t="n">
+        <v>134.1201089531114</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Mean Absolute Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>101.7833038314276</v>
+      </c>
+      <c r="D14" t="n">
+        <v>28.58802504047422</v>
+      </c>
+      <c r="E14" t="n">
+        <v>71.59817138500952</v>
+      </c>
+      <c r="F14" t="n">
+        <v>134.7471132250655</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mean Absolute Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>102.3133062684496</v>
+      </c>
+      <c r="D15" t="n">
+        <v>30.22648772075473</v>
+      </c>
+      <c r="E15" t="n">
+        <v>67.65448730086831</v>
+      </c>
+      <c r="F15" t="n">
+        <v>137.0861457514066</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mean Absolute Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>98.51437264353068</v>
+      </c>
+      <c r="D16" t="n">
+        <v>29.18322060385906</v>
+      </c>
+      <c r="E16" t="n">
+        <v>67.8831179812093</v>
+      </c>
+      <c r="F16" t="n">
+        <v>131.5042845271406</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mean Absolute Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>101.5388685286571</v>
+      </c>
+      <c r="D17" t="n">
+        <v>30.58953636424003</v>
+      </c>
+      <c r="E17" t="n">
+        <v>69.78021804707535</v>
+      </c>
+      <c r="F17" t="n">
+        <v>135.0425437262772</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>10698.09812388554</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4499.219819937543</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6100.426762548649</v>
+      </c>
+      <c r="F18" t="n">
+        <v>16422.24082636627</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>11225.90887143637</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4784.402749732612</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6276.833991550429</v>
+      </c>
+      <c r="F19" t="n">
+        <v>17089.80605634955</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>11367.94338331043</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4614.145258693665</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6597.221926614927</v>
+      </c>
+      <c r="F20" t="n">
+        <v>17028.8563689049</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>10990.47280064269</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4614.943199713381</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6212.285326845057</v>
+      </c>
+      <c r="F21" t="n">
+        <v>16756.16366047525</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>11212.41117968808</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4840.408299445995</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6255.033110148001</v>
+      </c>
+      <c r="F22" t="n">
+        <v>17221.16889188847</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>11218.12002009872</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4734.236886942731</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6320.583112605092</v>
+      </c>
+      <c r="F23" t="n">
+        <v>17004.48890527768</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>10689.41006806415</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4230.638566222236</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6374.989102457471</v>
+      </c>
+      <c r="F24" t="n">
+        <v>16154.12170568053</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>11444.60054288952</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4816.362935707807</v>
+      </c>
+      <c r="E25" t="n">
+        <v>6459.966131851416</v>
+      </c>
+      <c r="F25" t="n">
+        <v>17136.76374353049</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>21755.16647376354</v>
+      </c>
+      <c r="D26" t="n">
+        <v>9111.225399655532</v>
+      </c>
+      <c r="E26" t="n">
+        <v>12446.06810382608</v>
+      </c>
+      <c r="F26" t="n">
+        <v>33268.8442779171</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>22903.68937397634</v>
+      </c>
+      <c r="D27" t="n">
+        <v>9631.381356010774</v>
+      </c>
+      <c r="E27" t="n">
+        <v>12938.29562911424</v>
+      </c>
+      <c r="F27" t="n">
+        <v>34666.14448502759</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>22979.40802699192</v>
+      </c>
+      <c r="D28" t="n">
+        <v>9495.016077960388</v>
+      </c>
+      <c r="E28" t="n">
+        <v>13202.76488765772</v>
+      </c>
+      <c r="F28" t="n">
+        <v>34520.48531468322</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>22405.54249018251</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9312.397731044683</v>
+      </c>
+      <c r="E29" t="n">
+        <v>12733.11269413704</v>
+      </c>
+      <c r="F29" t="n">
+        <v>34004.94686076825</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>22869.38614588617</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9762.345973679669</v>
+      </c>
+      <c r="E30" t="n">
+        <v>12884.24157226981</v>
+      </c>
+      <c r="F30" t="n">
+        <v>34973.31841069138</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>22880.60368861202</v>
+      </c>
+      <c r="D31" t="n">
+        <v>9523.621982580828</v>
+      </c>
+      <c r="E31" t="n">
+        <v>13027.5842893786</v>
+      </c>
+      <c r="F31" t="n">
+        <v>34509.62547314659</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>21755.4949521523</v>
+      </c>
+      <c r="D32" t="n">
+        <v>8603.187442992981</v>
+      </c>
+      <c r="E32" t="n">
+        <v>12959.47197464072</v>
+      </c>
+      <c r="F32" t="n">
+        <v>32819.65191876438</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>23339.21438413913</v>
+      </c>
+      <c r="D33" t="n">
+        <v>9696.516330683802</v>
+      </c>
+      <c r="E33" t="n">
+        <v>13310.74253851978</v>
+      </c>
+      <c r="F33" t="n">
+        <v>34760.31442339295</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Non-zero Values Percentage</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>48.79578754578755</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.3065543725507394</v>
+      </c>
+      <c r="E34" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="F34" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Non-zero Values Percentage</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>48.79578754578755</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.3065543725507394</v>
+      </c>
+      <c r="E35" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="F35" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Non-zero Values Percentage</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>48.79578754578755</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.3065543725507394</v>
+      </c>
+      <c r="E36" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="F36" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Non-zero Values Percentage</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>48.79578754578755</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.3065543725507394</v>
+      </c>
+      <c r="E37" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="F37" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Non-zero Values Percentage</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>48.79578754578755</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.3065543725507394</v>
+      </c>
+      <c r="E38" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="F38" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Non-zero Values Percentage</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>48.79578754578755</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.3065543725507394</v>
+      </c>
+      <c r="E39" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="F39" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Non-zero Values Percentage</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>48.79578754578755</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.3065543725507394</v>
+      </c>
+      <c r="E40" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="F40" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Non-zero Values Percentage</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>48.79578754578755</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.3065543725507394</v>
+      </c>
+      <c r="E41" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="F41" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>101.5073695618204</v>
+      </c>
+      <c r="D42" t="n">
+        <v>22.20225350402427</v>
+      </c>
+      <c r="E42" t="n">
+        <v>78.10522877854369</v>
+      </c>
+      <c r="F42" t="n">
+        <v>128.1492911660703</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>103.8928829043669</v>
+      </c>
+      <c r="D43" t="n">
+        <v>23.24268038694879</v>
+      </c>
+      <c r="E43" t="n">
+        <v>79.22647279508554</v>
+      </c>
+      <c r="F43" t="n">
+        <v>130.7279849777757</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>104.7622372410503</v>
+      </c>
+      <c r="D44" t="n">
+        <v>22.15900019067668</v>
+      </c>
+      <c r="E44" t="n">
+        <v>81.22328438702124</v>
+      </c>
+      <c r="F44" t="n">
+        <v>130.4946603080176</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>102.860830301112</v>
+      </c>
+      <c r="D45" t="n">
+        <v>22.64184153311398</v>
+      </c>
+      <c r="E45" t="n">
+        <v>78.81805203660554</v>
+      </c>
+      <c r="F45" t="n">
+        <v>129.4456011630957</v>
+      </c>
+      <c r="G45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>103.776584243283</v>
+      </c>
+      <c r="D46" t="n">
+        <v>23.52742395814037</v>
+      </c>
+      <c r="E46" t="n">
+        <v>79.08876728175753</v>
+      </c>
+      <c r="F46" t="n">
+        <v>131.229451312914</v>
+      </c>
+      <c r="G46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>103.8945428923172</v>
+      </c>
+      <c r="D47" t="n">
+        <v>23.0229227427571</v>
+      </c>
+      <c r="E47" t="n">
+        <v>79.50209502022631</v>
+      </c>
+      <c r="F47" t="n">
+        <v>130.40126113377</v>
+      </c>
+      <c r="G47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>101.7004996601331</v>
+      </c>
+      <c r="D48" t="n">
+        <v>20.80920580366478</v>
+      </c>
+      <c r="E48" t="n">
+        <v>79.84352887026894</v>
+      </c>
+      <c r="F48" t="n">
+        <v>127.0988658709453</v>
+      </c>
+      <c r="G48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>104.9348050666048</v>
+      </c>
+      <c r="D49" t="n">
+        <v>23.27249526058566</v>
+      </c>
+      <c r="E49" t="n">
+        <v>80.37391449874403</v>
+      </c>
+      <c r="F49" t="n">
+        <v>130.9074625204021</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>144.7721939430524</v>
+      </c>
+      <c r="D50" t="n">
+        <v>31.54715388665741</v>
+      </c>
+      <c r="E50" t="n">
+        <v>111.5619473827258</v>
+      </c>
+      <c r="F50" t="n">
+        <v>182.3974897796489</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>148.4808960792496</v>
+      </c>
+      <c r="D51" t="n">
+        <v>32.7321110203615</v>
+      </c>
+      <c r="E51" t="n">
+        <v>113.7466290890162</v>
+      </c>
+      <c r="F51" t="n">
+        <v>186.1884649623268</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>148.8417854997151</v>
+      </c>
+      <c r="D52" t="n">
+        <v>32.12341272827209</v>
+      </c>
+      <c r="E52" t="n">
+        <v>114.9032849297953</v>
+      </c>
+      <c r="F52" t="n">
+        <v>185.7968926400095</v>
+      </c>
+      <c r="G52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>146.9243153799918</v>
+      </c>
+      <c r="D53" t="n">
+        <v>31.99195290036234</v>
+      </c>
+      <c r="E53" t="n">
+        <v>112.8410948818605</v>
+      </c>
+      <c r="F53" t="n">
+        <v>184.4043027176108</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>148.2826514620693</v>
+      </c>
+      <c r="D54" t="n">
+        <v>33.19716518892559</v>
+      </c>
+      <c r="E54" t="n">
+        <v>113.508773107059</v>
+      </c>
+      <c r="F54" t="n">
+        <v>187.0115461961945</v>
+      </c>
+      <c r="G54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>148.4617039156554</v>
+      </c>
+      <c r="D55" t="n">
+        <v>32.39842123993618</v>
+      </c>
+      <c r="E55" t="n">
+        <v>114.1384435209216</v>
+      </c>
+      <c r="F55" t="n">
+        <v>185.7676653057431</v>
+      </c>
+      <c r="G55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>145.0884279427942</v>
+      </c>
+      <c r="D56" t="n">
+        <v>29.68255020295852</v>
+      </c>
+      <c r="E56" t="n">
+        <v>113.8396766274427</v>
+      </c>
+      <c r="F56" t="n">
+        <v>181.1619494230629</v>
+      </c>
+      <c r="G56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>149.932615328935</v>
+      </c>
+      <c r="D57" t="n">
+        <v>32.77623462138281</v>
+      </c>
+      <c r="E57" t="n">
+        <v>115.3721913570154</v>
+      </c>
+      <c r="F57" t="n">
+        <v>186.441182208741</v>
+      </c>
+      <c r="G57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>R² Score (All)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.8478547642822469</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.08086344928489517</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.7434260077656774</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.9311249345538394</v>
+      </c>
+      <c r="G58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>R² Score (All)</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.8400918993626444</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.08571023932718728</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.7329962571643683</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.9291332608700794</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>R² Score (All)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.8385671989885004</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.08345117489445231</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.733948508735786</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.9255160155764881</v>
+      </c>
+      <c r="G60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>R² Score (All)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.8433478486063972</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.08368074324169425</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.7382089417421425</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.9298620284922625</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>R² Score (All)</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.8401255144823644</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.08667655970085453</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.7309439010028798</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.9293793972785344</v>
+      </c>
+      <c r="G62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>R² Score (All)</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.8402100870995142</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.08517266764489807</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.7343292154547754</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.9286393243484002</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>R² Score (All)</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.8482777317387065</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.07769386276222533</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.7476149850140348</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.9280250695990849</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>R² Score (All)</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.8370242072733747</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.08639821212032973</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.7322626105570941</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.9270656615627718</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>R² Score (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.7069826859802661</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.1321350148337261</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.5359548208950975</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.8429008988362652</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>R² Score (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.6912817254370315</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.1401088230261807</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.5164648013604454</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.8366878120087032</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>R² Score (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.6906379025091499</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.1372840288557913</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.5184965051138453</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.8333495784030356</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>R² Score (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.6974948916357862</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.1376731865703741</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.5256874111815151</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.8392777106329238</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>R² Score (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.6915110941735282</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.1424837331655042</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.5121802347503084</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.8373701032892645</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>R² Score (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.6914680767070409</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.1392684827445239</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.5186479818849895</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.8355607758913824</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>R² Score (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.7068612645549808</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.126746878783052</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.5422203090200919</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.8364205159582245</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>R² Score (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.6854456977659543</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.1410617036684514</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.5151512869639125</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.8319866425943373</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -687,7 +4207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,99 +4223,230 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>Best Feature Combination</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>std</t>
+          <t>Mean Value</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>Std Dev</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>Criterion</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mean Absolute Error</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>63.97562496956444</v>
+          <t>Mean Absolute Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>18.29356011981725</v>
+        <v>98.51437264353068</v>
       </c>
       <c r="D2" t="n">
-        <v>49.81063790199084</v>
-      </c>
-      <c r="E2" t="n">
-        <v>90.41512828519492</v>
+        <v>29.18322060385906</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mean Squared Error</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>11528.72710680558</v>
+          <t>Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>4612.471499170305</v>
+        <v>21755.16647376354</v>
       </c>
       <c r="D3" t="n">
-        <v>6829.566400402859</v>
-      </c>
-      <c r="E3" t="n">
-        <v>17719.40960459464</v>
+        <v>9111.225399655532</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Root Mean Squared Error</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>105.6092575507996</v>
+          <t>Root Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>21.66252023583751</v>
+        <v>144.7721939430524</v>
       </c>
       <c r="D4" t="n">
-        <v>82.64119070053903</v>
-      </c>
-      <c r="E4" t="n">
-        <v>133.1142727305928</v>
+        <v>31.54715388665741</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>R² Score</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.836505947941195</v>
+          <t>R² Score (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>0.08433338853109013</v>
+        <v>0.7069826859802661</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7231596034697774</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9228927989621292</v>
+        <v>0.1321350148337261</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Non-zero Values Percentage</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>48.79578754578755</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3065543725507394</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mean Absolute Error (All)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>49.89659522474322</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.92792537840772</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10689.41006806415</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4230.638566222236</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>101.5073695618204</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22.20225350402427</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>R² Score (All)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8482777317387065</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.07769386276222533</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/results/comparative_analysis_results.xlsx
+++ b/results/comparative_analysis_results.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,19 +505,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35.15914768892559</v>
+        <v>34.4118663949735</v>
       </c>
       <c r="D2" t="n">
-        <v>54.21960243143332</v>
+        <v>52.62019704596136</v>
       </c>
       <c r="E2" t="n">
-        <v>68.62596081217902</v>
+        <v>67.90762399474092</v>
       </c>
       <c r="F2" t="n">
-        <v>59.65295311394762</v>
+        <v>60.39281801441068</v>
       </c>
       <c r="G2" t="n">
-        <v>34.8607097413032</v>
+        <v>39.40421943459319</v>
       </c>
     </row>
     <row r="3">
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33.84681523317307</v>
+        <v>35.01841051439775</v>
       </c>
       <c r="D3" t="n">
-        <v>53.9487478689601</v>
+        <v>53.55553054227579</v>
       </c>
       <c r="E3" t="n">
-        <v>69.73589307189862</v>
+        <v>69.81780501130299</v>
       </c>
       <c r="F3" t="n">
-        <v>61.81006828089448</v>
+        <v>61.85371187828215</v>
       </c>
       <c r="G3" t="n">
-        <v>34.46588194818874</v>
+        <v>32.66470013244437</v>
       </c>
     </row>
     <row r="4">
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35.87768044632794</v>
+        <v>34.44766782375269</v>
       </c>
       <c r="D4" t="n">
-        <v>56.51006905635266</v>
+        <v>56.87437446839807</v>
       </c>
       <c r="E4" t="n">
-        <v>69.47813388439459</v>
+        <v>69.66806846754898</v>
       </c>
       <c r="F4" t="n">
-        <v>61.76042816465662</v>
+        <v>63.86174459718577</v>
       </c>
       <c r="G4" t="n">
-        <v>35.87251596014961</v>
+        <v>36.07384851242421</v>
       </c>
     </row>
     <row r="5">
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36.70110937996662</v>
+        <v>34.50106030885172</v>
       </c>
       <c r="D5" t="n">
-        <v>53.56727271541721</v>
+        <v>54.49288208415261</v>
       </c>
       <c r="E5" t="n">
-        <v>67.75917163907873</v>
+        <v>68.04116242162419</v>
       </c>
       <c r="F5" t="n">
-        <v>60.87937690753094</v>
+        <v>61.30033083697693</v>
       </c>
       <c r="G5" t="n">
-        <v>33.59776544315747</v>
+        <v>33.96556043962525</v>
       </c>
     </row>
     <row r="6">
@@ -597,19 +597,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38.05835838682737</v>
+        <v>34.26146282283177</v>
       </c>
       <c r="D6" t="n">
-        <v>54.92129261941468</v>
+        <v>56.51057357771916</v>
       </c>
       <c r="E6" t="n">
-        <v>68.22831705301645</v>
+        <v>69.74049999586293</v>
       </c>
       <c r="F6" t="n">
-        <v>60.92774164625366</v>
+        <v>61.2326150960576</v>
       </c>
       <c r="G6" t="n">
-        <v>36.16455809677689</v>
+        <v>38.93998877823778</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37.31345447295774</v>
+        <v>33.6151036897603</v>
       </c>
       <c r="D7" t="n">
-        <v>55.47377722148507</v>
+        <v>54.08411392363491</v>
       </c>
       <c r="E7" t="n">
-        <v>69.3799298531908</v>
+        <v>69.99206110691944</v>
       </c>
       <c r="F7" t="n">
-        <v>63.16700414553159</v>
+        <v>62.66281125156508</v>
       </c>
       <c r="G7" t="n">
-        <v>33.87963511484962</v>
+        <v>34.13609941238457</v>
       </c>
     </row>
     <row r="8">
@@ -643,19 +643,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>33.96424857883014</v>
+        <v>35.0002349440586</v>
       </c>
       <c r="D8" t="n">
-        <v>53.2004561063257</v>
+        <v>52.61474064500122</v>
       </c>
       <c r="E8" t="n">
-        <v>66.07117096704192</v>
+        <v>68.75272010086657</v>
       </c>
       <c r="F8" t="n">
-        <v>61.51594323577166</v>
+        <v>60.89167015819964</v>
       </c>
       <c r="G8" t="n">
-        <v>34.73115723574664</v>
+        <v>34.16958156471173</v>
       </c>
     </row>
     <row r="9">
@@ -666,1536 +666,2771 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>35.94219822122719</v>
+        <v>38.61359389422041</v>
       </c>
       <c r="D9" t="n">
-        <v>54.97093963026045</v>
+        <v>53.99804895296829</v>
       </c>
       <c r="E9" t="n">
-        <v>68.92218628954474</v>
+        <v>69.5058187064667</v>
       </c>
       <c r="F9" t="n">
-        <v>62.61224760076664</v>
+        <v>62.26466256204269</v>
       </c>
       <c r="G9" t="n">
-        <v>35.27669546474907</v>
+        <v>35.24180295403904</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>meteorological_only</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>127.088687101057</v>
+      </c>
+      <c r="D10" t="n">
+        <v>95.85715833859307</v>
+      </c>
+      <c r="E10" t="n">
+        <v>92.83636772823981</v>
+      </c>
+      <c r="F10" t="n">
+        <v>90.22941443836353</v>
+      </c>
+      <c r="G10" t="n">
+        <v>122.2546284638446</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Mean Absolute Error (Non-zero)</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>Precipitable Water</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>68.95288981206585</v>
-      </c>
-      <c r="D10" t="n">
-        <v>105.4368460850459</v>
-      </c>
-      <c r="E10" t="n">
-        <v>133.744216092761</v>
-      </c>
-      <c r="F10" t="n">
-        <v>119.23858440781</v>
-      </c>
-      <c r="G10" t="n">
-        <v>65.31144619213279</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>Pressure</t>
-        </is>
-      </c>
       <c r="C11" t="n">
-        <v>67.36300448845961</v>
+        <v>65.5733037918426</v>
       </c>
       <c r="D11" t="n">
-        <v>105.4355388196829</v>
+        <v>104.9084837721678</v>
       </c>
       <c r="E11" t="n">
-        <v>134.5352236392059</v>
+        <v>132.9062428631149</v>
       </c>
       <c r="F11" t="n">
-        <v>123.2862913366425</v>
+        <v>120.6434538651561</v>
       </c>
       <c r="G11" t="n">
-        <v>68.75228647133851</v>
+        <v>65.73184129096001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Relative Humidity</t>
+          <t>Pressure</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>69.13236875932736</v>
+        <v>68.99233894050825</v>
       </c>
       <c r="D12" t="n">
-        <v>108.0214746719487</v>
+        <v>105.8307058649085</v>
       </c>
       <c r="E12" t="n">
-        <v>135.62163340284</v>
+        <v>134.6720420226073</v>
       </c>
       <c r="F12" t="n">
-        <v>122.6901844592854</v>
+        <v>123.3222464688185</v>
       </c>
       <c r="G12" t="n">
-        <v>69.55045749322389</v>
+        <v>66.82288791041471</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>Relative Humidity</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>68.96801786958805</v>
+        <v>68.67927253161842</v>
       </c>
       <c r="D13" t="n">
-        <v>106.4882622456439</v>
+        <v>108.4025633683306</v>
       </c>
       <c r="E13" t="n">
-        <v>134.1201089531114</v>
+        <v>136.325899959861</v>
       </c>
       <c r="F13" t="n">
-        <v>119.3508263623413</v>
+        <v>124.0039894102965</v>
       </c>
       <c r="G13" t="n">
-        <v>67.22741061215362</v>
+        <v>69.66835142094176</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Wind Direction</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>73.0667718039068</v>
+        <v>68.1384345930902</v>
       </c>
       <c r="D14" t="n">
-        <v>107.3252408121303</v>
+        <v>106.6829369582584</v>
       </c>
       <c r="E14" t="n">
-        <v>134.7471132250655</v>
+        <v>133.6890195451972</v>
       </c>
       <c r="F14" t="n">
-        <v>122.179221931026</v>
+        <v>119.6049015708634</v>
       </c>
       <c r="G14" t="n">
-        <v>71.59817138500952</v>
+        <v>68.35973856310603</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Wind Direction</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>75.13607163610088</v>
+        <v>68.67199699205764</v>
       </c>
       <c r="D15" t="n">
-        <v>107.4972405864535</v>
+        <v>107.4243291570901</v>
       </c>
       <c r="E15" t="n">
-        <v>137.0861457514066</v>
+        <v>135.1317781139365</v>
       </c>
       <c r="F15" t="n">
-        <v>124.1925860674184</v>
+        <v>121.8273079331731</v>
       </c>
       <c r="G15" t="n">
-        <v>67.65448730086831</v>
+        <v>79.23824487387937</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>68.46052887399466</v>
+        <v>68.24661327605688</v>
       </c>
       <c r="D16" t="n">
-        <v>105.5323170729887</v>
+        <v>107.1895320991002</v>
       </c>
       <c r="E16" t="n">
-        <v>131.5042845271406</v>
+        <v>137.7384702032211</v>
       </c>
       <c r="F16" t="n">
-        <v>119.1916147623202</v>
+        <v>124.0798415395172</v>
       </c>
       <c r="G16" t="n">
-        <v>67.8831179812093</v>
+        <v>69.002655647593</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="inlineStr">
         <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>69.19992577607304</v>
+      </c>
+      <c r="D17" t="n">
+        <v>105.4469817247346</v>
+      </c>
+      <c r="E17" t="n">
+        <v>132.2969126794722</v>
+      </c>
+      <c r="F17" t="n">
+        <v>119.515763462055</v>
+      </c>
+      <c r="G17" t="n">
+        <v>66.75784861382641</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
           <t>ghi_only</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>70.02271701279371</v>
-      </c>
-      <c r="D17" t="n">
-        <v>107.0611257304028</v>
-      </c>
-      <c r="E17" t="n">
-        <v>135.0425437262772</v>
-      </c>
-      <c r="F17" t="n">
-        <v>125.7877381267366</v>
-      </c>
-      <c r="G17" t="n">
-        <v>69.78021804707535</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Mean Squared Error (All)</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>Precipitable Water</t>
-        </is>
-      </c>
       <c r="C18" t="n">
-        <v>6100.426762548649</v>
+        <v>78.49796887306847</v>
       </c>
       <c r="D18" t="n">
-        <v>11194.55072183782</v>
+        <v>107.3760309494266</v>
       </c>
       <c r="E18" t="n">
-        <v>16422.24082636627</v>
+        <v>136.5134724618075</v>
       </c>
       <c r="F18" t="n">
-        <v>13457.63868088345</v>
+        <v>124.0609291845203</v>
       </c>
       <c r="G18" t="n">
-        <v>6315.633627791525</v>
+        <v>71.75749226654257</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Pressure</t>
+          <t>meteorological_only</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6276.833991550429</v>
+        <v>179.2314407169206</v>
       </c>
       <c r="D19" t="n">
-        <v>12076.64929203537</v>
+        <v>158.0201543982271</v>
       </c>
       <c r="E19" t="n">
-        <v>17089.80605634955</v>
+        <v>170.4438303342788</v>
       </c>
       <c r="F19" t="n">
-        <v>14241.9120110255</v>
+        <v>171.3594183870813</v>
       </c>
       <c r="G19" t="n">
-        <v>6444.343006221001</v>
+        <v>176.8340357303563</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Mean Absolute Percentage Error (All)</t>
+        </is>
+      </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Relative Humidity</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>6822.678146763588</v>
-      </c>
-      <c r="D20" t="n">
-        <v>11967.39049067377</v>
-      </c>
-      <c r="E20" t="n">
-        <v>17028.8563689049</v>
-      </c>
-      <c r="F20" t="n">
-        <v>14423.56998359497</v>
-      </c>
-      <c r="G20" t="n">
-        <v>6597.221926614927</v>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Temperature</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>6212.285326845057</v>
-      </c>
-      <c r="D21" t="n">
-        <v>12085.84745414155</v>
-      </c>
-      <c r="E21" t="n">
-        <v>16756.16366047525</v>
-      </c>
-      <c r="F21" t="n">
-        <v>13537.03463268004</v>
-      </c>
-      <c r="G21" t="n">
-        <v>6361.032929071547</v>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Wind Direction</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>6335.147290362707</v>
-      </c>
-      <c r="D22" t="n">
-        <v>12142.74318895176</v>
-      </c>
-      <c r="E22" t="n">
-        <v>17221.16889188847</v>
-      </c>
-      <c r="F22" t="n">
-        <v>14107.96341708948</v>
-      </c>
-      <c r="G22" t="n">
-        <v>6255.033110148001</v>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>6320.583112605092</v>
-      </c>
-      <c r="D23" t="n">
-        <v>12163.38453007018</v>
-      </c>
-      <c r="E23" t="n">
-        <v>17004.48890527768</v>
-      </c>
-      <c r="F23" t="n">
-        <v>14148.70631025988</v>
-      </c>
-      <c r="G23" t="n">
-        <v>6453.437242280751</v>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>6374.989102457471</v>
-      </c>
-      <c r="D24" t="n">
-        <v>11270.75530312398</v>
-      </c>
-      <c r="E24" t="n">
-        <v>16154.12170568053</v>
-      </c>
-      <c r="F24" t="n">
-        <v>13085.39111367146</v>
-      </c>
-      <c r="G24" t="n">
-        <v>6561.793115387328</v>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>ghi_only</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>6520.865757263481</v>
-      </c>
-      <c r="D25" t="n">
-        <v>12454.80899683769</v>
-      </c>
-      <c r="E25" t="n">
-        <v>17136.76374353049</v>
-      </c>
-      <c r="F25" t="n">
-        <v>14650.59808496454</v>
-      </c>
-      <c r="G25" t="n">
-        <v>6459.966131851416</v>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Mean Squared Error (Non-zero)</t>
-        </is>
-      </c>
+      <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>Precipitable Water</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>12446.06810382608</v>
-      </c>
-      <c r="D26" t="n">
-        <v>22758.97221206025</v>
-      </c>
-      <c r="E26" t="n">
-        <v>33268.8442779171</v>
-      </c>
-      <c r="F26" t="n">
-        <v>27454.36797609515</v>
-      </c>
-      <c r="G26" t="n">
-        <v>12847.57979891915</v>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Pressure</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>12938.29562911424</v>
-      </c>
-      <c r="D27" t="n">
-        <v>24550.86947187588</v>
-      </c>
-      <c r="E27" t="n">
-        <v>34666.14448502759</v>
-      </c>
-      <c r="F27" t="n">
-        <v>29079.19495189453</v>
-      </c>
-      <c r="G27" t="n">
-        <v>13283.94233196945</v>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>Relative Humidity</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>13559.62376478935</v>
-      </c>
-      <c r="D28" t="n">
-        <v>24179.57694506985</v>
-      </c>
-      <c r="E28" t="n">
-        <v>34520.48531468322</v>
-      </c>
-      <c r="F28" t="n">
-        <v>29434.58922275947</v>
-      </c>
-      <c r="G28" t="n">
-        <v>13202.76488765772</v>
+          <t>meteorological_only</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n"/>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Mean Absolute Percentage Error (Non-zero)</t>
+        </is>
+      </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>Precipitable Water</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>12733.11269413704</v>
+        <v>54.51674895995997</v>
       </c>
       <c r="D29" t="n">
-        <v>24609.20053625944</v>
+        <v>124.0090647087421</v>
       </c>
       <c r="E29" t="n">
-        <v>34004.94686076825</v>
+        <v>170.3024081892406</v>
       </c>
       <c r="F29" t="n">
-        <v>27599.48765696576</v>
+        <v>136.3145984157522</v>
       </c>
       <c r="G29" t="n">
-        <v>13080.96470278204</v>
+        <v>62.10011479476909</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Wind Direction</t>
+          <t>Pressure</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>13029.93474570269</v>
+        <v>51.37838391668147</v>
       </c>
       <c r="D30" t="n">
-        <v>24682.01449376938</v>
+        <v>128.1838139524542</v>
       </c>
       <c r="E30" t="n">
-        <v>34973.31841069138</v>
+        <v>168.4053881943968</v>
       </c>
       <c r="F30" t="n">
-        <v>28777.42150699761</v>
+        <v>103.8323743900723</v>
       </c>
       <c r="G30" t="n">
-        <v>12884.24157226981</v>
+        <v>52.27694803805615</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Relative Humidity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>13027.5842893786</v>
+        <v>52.09825863992005</v>
       </c>
       <c r="D31" t="n">
-        <v>24734.75081190783</v>
+        <v>119.5581278535437</v>
       </c>
       <c r="E31" t="n">
-        <v>34509.62547314659</v>
+        <v>161.7750272880174</v>
       </c>
       <c r="F31" t="n">
-        <v>28826.15099183342</v>
+        <v>122.6202590758798</v>
       </c>
       <c r="G31" t="n">
-        <v>13304.90687679367</v>
+        <v>54.21776250830433</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>12959.47197464072</v>
+        <v>52.47367081280585</v>
       </c>
       <c r="D32" t="n">
-        <v>22965.88893627776</v>
+        <v>132.8603276444218</v>
       </c>
       <c r="E32" t="n">
-        <v>32819.65191876438</v>
+        <v>174.6805551915696</v>
       </c>
       <c r="F32" t="n">
-        <v>26678.01057339492</v>
+        <v>132.7629762134281</v>
       </c>
       <c r="G32" t="n">
-        <v>13354.45135768373</v>
+        <v>53.14243034534712</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>ghi_only</t>
+          <t>Wind Direction</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>13433.92484148061</v>
+        <v>47.31433368050971</v>
       </c>
       <c r="D33" t="n">
-        <v>25279.24633068416</v>
+        <v>110.169307600401</v>
       </c>
       <c r="E33" t="n">
-        <v>34760.31442339295</v>
+        <v>140.81137644248</v>
       </c>
       <c r="F33" t="n">
-        <v>29911.84378661814</v>
+        <v>111.0918687643791</v>
       </c>
       <c r="G33" t="n">
-        <v>13310.74253851978</v>
+        <v>47.34967561723364</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>Non-zero Values Percentage</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Precipitable Water</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>48.46611721611722</v>
+        <v>47.89946124507022</v>
       </c>
       <c r="D34" t="n">
-        <v>48.99267399267399</v>
+        <v>110.2622681777648</v>
       </c>
       <c r="E34" t="n">
-        <v>49.10714285714285</v>
+        <v>142.6985797475827</v>
       </c>
       <c r="F34" t="n">
-        <v>48.94688644688645</v>
+        <v>104.5302584427246</v>
       </c>
       <c r="G34" t="n">
-        <v>48.46611721611722</v>
+        <v>48.06578715144393</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>Pressure</t>
+          <t>all</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>48.46611721611722</v>
+        <v>56.610699291381</v>
       </c>
       <c r="D35" t="n">
-        <v>48.99267399267399</v>
+        <v>124.9013351067922</v>
       </c>
       <c r="E35" t="n">
-        <v>49.10714285714285</v>
+        <v>161.6989472010773</v>
       </c>
       <c r="F35" t="n">
-        <v>48.94688644688645</v>
+        <v>122.0919329906082</v>
       </c>
       <c r="G35" t="n">
-        <v>48.46611721611722</v>
+        <v>59.28828375647236</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>Relative Humidity</t>
+          <t>ghi_only</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>48.46611721611722</v>
+        <v>47.940486482251</v>
       </c>
       <c r="D36" t="n">
-        <v>48.99267399267399</v>
+        <v>107.3733977845215</v>
       </c>
       <c r="E36" t="n">
-        <v>49.10714285714285</v>
+        <v>148.9263474894729</v>
       </c>
       <c r="F36" t="n">
-        <v>48.94688644688645</v>
+        <v>115.5916587602005</v>
       </c>
       <c r="G36" t="n">
-        <v>48.46611721611722</v>
+        <v>48.10946153461352</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>meteorological_only</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>48.46611721611722</v>
+        <v>182.4514950225946</v>
       </c>
       <c r="D37" t="n">
-        <v>48.99267399267399</v>
+        <v>252.0297428040548</v>
       </c>
       <c r="E37" t="n">
-        <v>49.10714285714285</v>
+        <v>178.1705074074214</v>
       </c>
       <c r="F37" t="n">
-        <v>48.94688644688645</v>
+        <v>133.1040767308596</v>
       </c>
       <c r="G37" t="n">
-        <v>48.46611721611722</v>
+        <v>168.4340112473938</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n"/>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Mean Squared Error (All)</t>
+        </is>
+      </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>Wind Direction</t>
+          <t>Precipitable Water</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>48.46611721611722</v>
+        <v>6230.177897802608</v>
       </c>
       <c r="D38" t="n">
-        <v>48.99267399267399</v>
+        <v>11187.39066795432</v>
       </c>
       <c r="E38" t="n">
-        <v>49.10714285714285</v>
+        <v>16336.20651322859</v>
       </c>
       <c r="F38" t="n">
-        <v>48.94688644688645</v>
+        <v>13673.62747841953</v>
       </c>
       <c r="G38" t="n">
-        <v>48.46611721611722</v>
+        <v>6352.758511807414</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Pressure</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>48.46611721611722</v>
+        <v>6157.551308864711</v>
       </c>
       <c r="D39" t="n">
-        <v>48.99267399267399</v>
+        <v>12174.19187198077</v>
       </c>
       <c r="E39" t="n">
-        <v>49.10714285714285</v>
+        <v>17292.90297468702</v>
       </c>
       <c r="F39" t="n">
-        <v>48.94688644688645</v>
+        <v>14297.81051747503</v>
       </c>
       <c r="G39" t="n">
-        <v>48.46611721611722</v>
+        <v>6260.113136654371</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Relative Humidity</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>48.46611721611722</v>
+        <v>6431.290381852968</v>
       </c>
       <c r="D40" t="n">
-        <v>48.99267399267399</v>
+        <v>11875.1766557539</v>
       </c>
       <c r="E40" t="n">
-        <v>49.10714285714285</v>
+        <v>17111.73479520935</v>
       </c>
       <c r="F40" t="n">
-        <v>48.94688644688645</v>
+        <v>14504.34571017973</v>
       </c>
       <c r="G40" t="n">
-        <v>48.46611721611722</v>
+        <v>6648.67487984967</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>ghi_only</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>48.46611721611722</v>
+        <v>6177.584030190115</v>
       </c>
       <c r="D41" t="n">
-        <v>48.99267399267399</v>
+        <v>12295.83851341767</v>
       </c>
       <c r="E41" t="n">
-        <v>49.10714285714285</v>
+        <v>16978.48479628518</v>
       </c>
       <c r="F41" t="n">
-        <v>48.94688644688645</v>
+        <v>13598.28056107423</v>
       </c>
       <c r="G41" t="n">
-        <v>48.46611721611722</v>
+        <v>6158.958271693629</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>Root Mean Squared Error (All)</t>
-        </is>
-      </c>
+      <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>Precipitable Water</t>
+          <t>Wind Direction</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>78.10522877854369</v>
+        <v>6287.471184978043</v>
       </c>
       <c r="D42" t="n">
-        <v>105.8043038908995</v>
+        <v>12261.78719868023</v>
       </c>
       <c r="E42" t="n">
-        <v>128.1492911660703</v>
+        <v>17118.53442082536</v>
       </c>
       <c r="F42" t="n">
-        <v>116.0070630646404</v>
+        <v>14150.208962532</v>
       </c>
       <c r="G42" t="n">
-        <v>79.4709609089479</v>
+        <v>6540.054489395361</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>Pressure</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>79.22647279508554</v>
+        <v>6311.676861633772</v>
       </c>
       <c r="D43" t="n">
-        <v>109.8938091615509</v>
+        <v>12469.96770436369</v>
       </c>
       <c r="E43" t="n">
-        <v>130.7279849777757</v>
+        <v>17046.6766907025</v>
       </c>
       <c r="F43" t="n">
-        <v>119.3394821969054</v>
+        <v>14204.12173636481</v>
       </c>
       <c r="G43" t="n">
-        <v>80.27666539051683</v>
+        <v>6233.913951540642</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>Relative Humidity</t>
+          <t>all</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>82.59950451887461</v>
+        <v>6329.942908620073</v>
       </c>
       <c r="D44" t="n">
-        <v>109.395568880434</v>
+        <v>11392.08241957587</v>
       </c>
       <c r="E44" t="n">
-        <v>130.4946603080176</v>
+        <v>16058.39407209689</v>
       </c>
       <c r="F44" t="n">
-        <v>120.098168110904</v>
+        <v>13176.46785543734</v>
       </c>
       <c r="G44" t="n">
-        <v>81.22328438702124</v>
+        <v>6566.488768330412</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>ghi_only</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>78.81805203660554</v>
+        <v>6474.047288303464</v>
       </c>
       <c r="D45" t="n">
-        <v>109.9356514245563</v>
+        <v>12482.88330987017</v>
       </c>
       <c r="E45" t="n">
-        <v>129.4456011630957</v>
+        <v>17048.52789767601</v>
       </c>
       <c r="F45" t="n">
-        <v>116.3487629185632</v>
+        <v>14489.10851962601</v>
       </c>
       <c r="G45" t="n">
-        <v>79.75608396273947</v>
+        <v>6264.249833623585</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>Wind Direction</t>
+          <t>meteorological_only</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>79.5936385043598</v>
+        <v>37738.42155766685</v>
       </c>
       <c r="D46" t="n">
-        <v>110.1941159452344</v>
+        <v>23710.44983333598</v>
       </c>
       <c r="E46" t="n">
-        <v>131.229451312914</v>
+        <v>24531.84903655111</v>
       </c>
       <c r="F46" t="n">
-        <v>118.7769481721494</v>
+        <v>24005.05234149085</v>
       </c>
       <c r="G46" t="n">
-        <v>79.08876728175753</v>
+        <v>35469.84026075387</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n"/>
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Precipitable Water</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>79.50209502022631</v>
+        <v>12711.87388777668</v>
       </c>
       <c r="D47" t="n">
-        <v>110.2877351751779</v>
+        <v>22770.9054272182</v>
       </c>
       <c r="E47" t="n">
-        <v>130.40126113377</v>
+        <v>33081.33392944478</v>
       </c>
       <c r="F47" t="n">
-        <v>118.9483346258361</v>
+        <v>27886.58761590874</v>
       </c>
       <c r="G47" t="n">
-        <v>80.33328850657584</v>
+        <v>12713.11781877745</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Pressure</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>79.84352887026894</v>
+        <v>12684.6785455226</v>
       </c>
       <c r="D48" t="n">
-        <v>106.1638135294884</v>
+        <v>24761.60421906423</v>
       </c>
       <c r="E48" t="n">
-        <v>127.0988658709453</v>
+        <v>35024.30447513222</v>
       </c>
       <c r="F48" t="n">
-        <v>114.3913944039125</v>
+        <v>29194.76268243316</v>
       </c>
       <c r="G48" t="n">
-        <v>81.00489562605046</v>
+        <v>12906.80113806397</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>ghi_only</t>
+          <t>Relative Humidity</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>80.75187773212139</v>
+        <v>13078.91437901164</v>
       </c>
       <c r="D49" t="n">
-        <v>111.6011155716541</v>
+        <v>23989.24452575376</v>
       </c>
       <c r="E49" t="n">
-        <v>130.9074625204021</v>
+        <v>34629.15652370204</v>
       </c>
       <c r="F49" t="n">
-        <v>121.0396550101021</v>
+        <v>29575.23815394388</v>
       </c>
       <c r="G49" t="n">
-        <v>80.37391449874403</v>
+        <v>13306.77739672469</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>Root Mean Squared Error (Non-zero)</t>
-        </is>
-      </c>
+      <c r="A50" s="1" t="n"/>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>Precipitable Water</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>111.5619473827258</v>
+        <v>12699.91748874376</v>
       </c>
       <c r="D50" t="n">
-        <v>150.8607709514314</v>
+        <v>25018.83863759387</v>
       </c>
       <c r="E50" t="n">
-        <v>182.3974897796489</v>
+        <v>34416.55587776551</v>
       </c>
       <c r="F50" t="n">
-        <v>165.6935966659398</v>
+        <v>27728.14005040359</v>
       </c>
       <c r="G50" t="n">
-        <v>113.3471649355163</v>
+        <v>12675.19027211745</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>Pressure</t>
+          <t>Wind Direction</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>113.7466290890162</v>
+        <v>12957.08850778702</v>
       </c>
       <c r="D51" t="n">
-        <v>156.6871707316074</v>
+        <v>24885.44934306704</v>
       </c>
       <c r="E51" t="n">
-        <v>186.1884649623268</v>
+        <v>34757.95709936613</v>
       </c>
       <c r="F51" t="n">
-        <v>170.5262295129243</v>
+        <v>28872.4240760911</v>
       </c>
       <c r="G51" t="n">
-        <v>115.2559861003733</v>
+        <v>13487.67535468858</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>Relative Humidity</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>116.4457975402691</v>
+        <v>13012.33310603237</v>
       </c>
       <c r="D52" t="n">
-        <v>155.4978358211774</v>
+        <v>25371.74072547781</v>
       </c>
       <c r="E52" t="n">
-        <v>185.7968926400095</v>
+        <v>34578.55868601349</v>
       </c>
       <c r="F52" t="n">
-        <v>171.565116567324</v>
+        <v>28978.36342874144</v>
       </c>
       <c r="G52" t="n">
-        <v>114.9032849297953</v>
+        <v>12852.65916378776</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>all</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>112.8410948818605</v>
+        <v>12858.83583398118</v>
       </c>
       <c r="D53" t="n">
-        <v>156.8731989100096</v>
+        <v>23218.55319189391</v>
       </c>
       <c r="E53" t="n">
-        <v>184.4043027176108</v>
+        <v>32607.33264156556</v>
       </c>
       <c r="F53" t="n">
-        <v>166.1309352798742</v>
+        <v>26887.23672529137</v>
       </c>
       <c r="G53" t="n">
-        <v>114.372045110604</v>
+        <v>13336.52630174497</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>Wind Direction</t>
+          <t>ghi_only</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>114.1487395712396</v>
+        <v>13347.73693016216</v>
       </c>
       <c r="D54" t="n">
-        <v>157.1051065171638</v>
+        <v>25399.51853355884</v>
       </c>
       <c r="E54" t="n">
-        <v>187.0115461961945</v>
+        <v>34571.93677201164</v>
       </c>
       <c r="F54" t="n">
-        <v>169.6390919186896</v>
+        <v>29570.37231712158</v>
       </c>
       <c r="G54" t="n">
-        <v>113.508773107059</v>
+        <v>12917.96673897824</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>meteorological_only</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>114.1384435209216</v>
+        <v>53402.93767892806</v>
       </c>
       <c r="D55" t="n">
-        <v>157.2728546568283</v>
+        <v>42950.32570485792</v>
       </c>
       <c r="E55" t="n">
-        <v>185.7676653057431</v>
+        <v>49049.64882161331</v>
       </c>
       <c r="F55" t="n">
-        <v>169.7826581009775</v>
+        <v>48472.12090877683</v>
       </c>
       <c r="G55" t="n">
-        <v>115.3468979938068</v>
+        <v>52608.3717016887</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n"/>
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Mean Squared Percentage Error (All)</t>
+        </is>
+      </c>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>113.8396766274427</v>
-      </c>
-      <c r="D56" t="n">
-        <v>151.5450063059742</v>
-      </c>
-      <c r="E56" t="n">
-        <v>181.1619494230629</v>
-      </c>
-      <c r="F56" t="n">
-        <v>163.334045971423</v>
-      </c>
-      <c r="G56" t="n">
-        <v>115.5614613860682</v>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>ghi_only</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>115.9048093975423</v>
-      </c>
-      <c r="D57" t="n">
-        <v>158.9944852209792</v>
-      </c>
-      <c r="E57" t="n">
-        <v>186.441182208741</v>
-      </c>
-      <c r="F57" t="n">
-        <v>172.9504084603969</v>
-      </c>
-      <c r="G57" t="n">
-        <v>115.3721913570154</v>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>R² Score (All)</t>
-        </is>
-      </c>
+      <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>Precipitable Water</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0.9311249345538394</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.8183006597292993</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.7434260077656774</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.8177270143184987</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.9286952050439201</v>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>Pressure</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0.9291332608700794</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.8039832715427452</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.7329962571643683</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.8071046573905758</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.927242049845453</v>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>Relative Humidity</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0.922970568754093</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.805756656881689</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.733948508735786</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.8046442449944458</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.9255160155764881</v>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>Temperature</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0.9298620284922625</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.8038339756908682</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.7382089417421425</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.8166516594566131</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.9281826376500997</v>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n"/>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>Wind Direction</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0.928474891803716</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.8029104980332016</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.7309439010028798</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.80891888429349</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.9293793972785344</v>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0.9286393243484002</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.8025754673422243</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.7343292154547754</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.8083670542912459</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.9271393740609254</v>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0.9280250695990849</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.8170637791711283</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.7476149850140348</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.8227688108102404</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.9259160140990441</v>
+          <t>meteorological_only</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n"/>
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Mean Squared Percentage Error (Non-zero)</t>
+        </is>
+      </c>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>ghi_only</t>
+          <t>Precipitable Water</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.926378092340295</v>
+        <v>356.1470539937011</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7978453415277865</v>
+        <v>1079.898426853708</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7322626105570941</v>
+        <v>2454.738752161098</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8015693303789259</v>
+        <v>1365.355764352898</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9270656615627718</v>
+        <v>446.370771784284</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>R² Score (Non-zero)</t>
-        </is>
-      </c>
+      <c r="A66" s="1" t="n"/>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>Precipitable Water</t>
+          <t>Pressure</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.8429008988362652</v>
+        <v>288.5836298765277</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6448039526613595</v>
+        <v>1227.603586686472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5359548208950975</v>
+        <v>2012.051957089581</v>
       </c>
       <c r="F66" t="n">
-        <v>0.6734208950899219</v>
+        <v>563.0426174871467</v>
       </c>
       <c r="G66" t="n">
-        <v>0.8378328624186869</v>
+        <v>292.8389700812955</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>Pressure</t>
+          <t>Relative Humidity</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.8366878120087032</v>
+        <v>276.1299646900731</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6168380665926478</v>
+        <v>888.7357904592154</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5164648013604454</v>
+        <v>1686.760015421478</v>
       </c>
       <c r="F67" t="n">
-        <v>0.6540930220224253</v>
+        <v>838.1705848209489</v>
       </c>
       <c r="G67" t="n">
-        <v>0.8323249252009355</v>
+        <v>318.7295534681911</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>Relative Humidity</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.8288451671807923</v>
+        <v>305.6606174472907</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6226327763316928</v>
+        <v>1342.953351504328</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5184965051138453</v>
+        <v>2372.287023337485</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6498654855163836</v>
+        <v>1128.906583572978</v>
       </c>
       <c r="G68" t="n">
-        <v>0.8333495784030356</v>
+        <v>323.0938148554695</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n"/>
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>Wind Direction</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.8392777106329238</v>
+        <v>237.2948843088847</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6159277019543397</v>
+        <v>695.8332006361348</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5256874111815151</v>
+        <v>1174.636967621507</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6716946468104195</v>
+        <v>734.9787688472226</v>
       </c>
       <c r="G69" t="n">
-        <v>0.8348869875997331</v>
+        <v>206.2873005394538</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n"/>
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>Wind Direction</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.8355311075195916</v>
+        <v>233.6149852408917</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6147913048597069</v>
+        <v>743.8625118843231</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5121802347503084</v>
+        <v>1099.640467188447</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6576827204487696</v>
+        <v>571.9998130256832</v>
       </c>
       <c r="G70" t="n">
-        <v>0.8373701032892645</v>
+        <v>219.2076497919687</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n"/>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>all</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.8355607758913824</v>
+        <v>396.7526944221051</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6139682566315429</v>
+        <v>1222.04188199948</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5186479818849895</v>
+        <v>1943.383179766045</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6571030665461823</v>
+        <v>889.8284860891666</v>
       </c>
       <c r="G71" t="n">
-        <v>0.8320603025811075</v>
+        <v>422.0560672996261</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n"/>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>ghi_only</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.8364205159582245</v>
+        <v>223.1386562029758</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6415746327304985</v>
+        <v>697.8416567326764</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5422203090200919</v>
+        <v>1341.281431726749</v>
       </c>
       <c r="F72" t="n">
-        <v>0.6826559321479564</v>
+        <v>746.5546828348547</v>
       </c>
       <c r="G72" t="n">
-        <v>0.8314349329181325</v>
+        <v>234.8780717066029</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
       <c r="B73" s="1" t="inlineStr">
         <is>
+          <t>meteorological_only</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>5576.25189558083</v>
+      </c>
+      <c r="D73" t="n">
+        <v>7778.000636425111</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2519.114491458615</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1372.790213228887</v>
+      </c>
+      <c r="G73" t="n">
+        <v>4579.904073452349</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Non-zero Values Percentage</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="D74" t="n">
+        <v>48.99267399267399</v>
+      </c>
+      <c r="E74" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="F74" t="n">
+        <v>48.94688644688645</v>
+      </c>
+      <c r="G74" t="n">
+        <v>48.46611721611722</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="D75" t="n">
+        <v>48.99267399267399</v>
+      </c>
+      <c r="E75" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="F75" t="n">
+        <v>48.94688644688645</v>
+      </c>
+      <c r="G75" t="n">
+        <v>48.46611721611722</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="D76" t="n">
+        <v>48.99267399267399</v>
+      </c>
+      <c r="E76" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="F76" t="n">
+        <v>48.94688644688645</v>
+      </c>
+      <c r="G76" t="n">
+        <v>48.46611721611722</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="D77" t="n">
+        <v>48.99267399267399</v>
+      </c>
+      <c r="E77" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="F77" t="n">
+        <v>48.94688644688645</v>
+      </c>
+      <c r="G77" t="n">
+        <v>48.46611721611722</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="D78" t="n">
+        <v>48.99267399267399</v>
+      </c>
+      <c r="E78" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="F78" t="n">
+        <v>48.94688644688645</v>
+      </c>
+      <c r="G78" t="n">
+        <v>48.46611721611722</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="D79" t="n">
+        <v>48.99267399267399</v>
+      </c>
+      <c r="E79" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="F79" t="n">
+        <v>48.94688644688645</v>
+      </c>
+      <c r="G79" t="n">
+        <v>48.46611721611722</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="D80" t="n">
+        <v>48.99267399267399</v>
+      </c>
+      <c r="E80" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="F80" t="n">
+        <v>48.94688644688645</v>
+      </c>
+      <c r="G80" t="n">
+        <v>48.46611721611722</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
           <t>ghi_only</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>0.8304317877668537</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.6054703923931715</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.5151512869639125</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.6441883791114966</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.8319866425943373</v>
+      <c r="C81" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="D81" t="n">
+        <v>48.99267399267399</v>
+      </c>
+      <c r="E81" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="F81" t="n">
+        <v>48.94688644688645</v>
+      </c>
+      <c r="G81" t="n">
+        <v>48.46611721611722</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>meteorological_only</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="D82" t="n">
+        <v>48.99267399267399</v>
+      </c>
+      <c r="E82" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="F82" t="n">
+        <v>48.94688644688645</v>
+      </c>
+      <c r="G82" t="n">
+        <v>48.46611721611722</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>78.93147596366488</v>
+      </c>
+      <c r="D83" t="n">
+        <v>105.7704621714131</v>
+      </c>
+      <c r="E83" t="n">
+        <v>127.8131703433906</v>
+      </c>
+      <c r="F83" t="n">
+        <v>116.9342870094975</v>
+      </c>
+      <c r="G83" t="n">
+        <v>79.70419381567957</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>78.47006632382001</v>
+      </c>
+      <c r="D84" t="n">
+        <v>110.3367204151943</v>
+      </c>
+      <c r="E84" t="n">
+        <v>131.5024827700489</v>
+      </c>
+      <c r="F84" t="n">
+        <v>119.5734523942293</v>
+      </c>
+      <c r="G84" t="n">
+        <v>79.12087674346368</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>80.19532643398222</v>
+      </c>
+      <c r="D85" t="n">
+        <v>108.9732841376908</v>
+      </c>
+      <c r="E85" t="n">
+        <v>130.8118297219688</v>
+      </c>
+      <c r="F85" t="n">
+        <v>120.4339890154757</v>
+      </c>
+      <c r="G85" t="n">
+        <v>81.53940691377188</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="1" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>78.59760829815444</v>
+      </c>
+      <c r="D86" t="n">
+        <v>110.8866020464946</v>
+      </c>
+      <c r="E86" t="n">
+        <v>130.3015149424026</v>
+      </c>
+      <c r="F86" t="n">
+        <v>116.6116656303057</v>
+      </c>
+      <c r="G86" t="n">
+        <v>78.47903077697653</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>79.29357593763849</v>
+      </c>
+      <c r="D87" t="n">
+        <v>110.7329544385059</v>
+      </c>
+      <c r="E87" t="n">
+        <v>130.8378172426663</v>
+      </c>
+      <c r="F87" t="n">
+        <v>118.9546508654958</v>
+      </c>
+      <c r="G87" t="n">
+        <v>80.8706033697991</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>79.4460625936476</v>
+      </c>
+      <c r="D88" t="n">
+        <v>111.6690095969499</v>
+      </c>
+      <c r="E88" t="n">
+        <v>130.5629223428402</v>
+      </c>
+      <c r="F88" t="n">
+        <v>119.1810460449345</v>
+      </c>
+      <c r="G88" t="n">
+        <v>78.95513885454602</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>79.56093833421066</v>
+      </c>
+      <c r="D89" t="n">
+        <v>106.7336986128368</v>
+      </c>
+      <c r="E89" t="n">
+        <v>126.7217190228135</v>
+      </c>
+      <c r="F89" t="n">
+        <v>114.7887967331191</v>
+      </c>
+      <c r="G89" t="n">
+        <v>81.03387420289377</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="inlineStr">
+        <is>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>80.46146461694234</v>
+      </c>
+      <c r="D90" t="n">
+        <v>111.7268244866476</v>
+      </c>
+      <c r="E90" t="n">
+        <v>130.5700114791908</v>
+      </c>
+      <c r="F90" t="n">
+        <v>120.3707128816059</v>
+      </c>
+      <c r="G90" t="n">
+        <v>79.14701405374421</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="1" t="inlineStr">
+        <is>
+          <t>meteorological_only</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>194.2637937384804</v>
+      </c>
+      <c r="D91" t="n">
+        <v>153.9819789239507</v>
+      </c>
+      <c r="E91" t="n">
+        <v>156.6264633979555</v>
+      </c>
+      <c r="F91" t="n">
+        <v>154.9356393522512</v>
+      </c>
+      <c r="G91" t="n">
+        <v>188.3343841701612</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>112.7469462459036</v>
+      </c>
+      <c r="D92" t="n">
+        <v>150.9003161932347</v>
+      </c>
+      <c r="E92" t="n">
+        <v>181.8827477509749</v>
+      </c>
+      <c r="F92" t="n">
+        <v>166.9927771369431</v>
+      </c>
+      <c r="G92" t="n">
+        <v>112.7524625840937</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="1" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>112.626278219262</v>
+      </c>
+      <c r="D93" t="n">
+        <v>157.3582035327813</v>
+      </c>
+      <c r="E93" t="n">
+        <v>187.1478145080306</v>
+      </c>
+      <c r="F93" t="n">
+        <v>170.8647496777295</v>
+      </c>
+      <c r="G93" t="n">
+        <v>113.6081033116211</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n"/>
+      <c r="B94" s="1" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>114.3630813637497</v>
+      </c>
+      <c r="D94" t="n">
+        <v>154.8846168144331</v>
+      </c>
+      <c r="E94" t="n">
+        <v>186.0891090948152</v>
+      </c>
+      <c r="F94" t="n">
+        <v>171.9745276311113</v>
+      </c>
+      <c r="G94" t="n">
+        <v>115.3550059456662</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>112.6939106107502</v>
+      </c>
+      <c r="D95" t="n">
+        <v>158.1734447927144</v>
+      </c>
+      <c r="E95" t="n">
+        <v>185.516996196482</v>
+      </c>
+      <c r="F95" t="n">
+        <v>166.5176868996311</v>
+      </c>
+      <c r="G95" t="n">
+        <v>112.584147516946</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n"/>
+      <c r="B96" s="1" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>113.8292076217129</v>
+      </c>
+      <c r="D96" t="n">
+        <v>157.7512261222303</v>
+      </c>
+      <c r="E96" t="n">
+        <v>186.4348602042175</v>
+      </c>
+      <c r="F96" t="n">
+        <v>169.9188749847735</v>
+      </c>
+      <c r="G96" t="n">
+        <v>116.1364514469449</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n"/>
+      <c r="B97" s="1" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>114.0716139363004</v>
+      </c>
+      <c r="D97" t="n">
+        <v>159.2850926027851</v>
+      </c>
+      <c r="E97" t="n">
+        <v>185.9531088366459</v>
+      </c>
+      <c r="F97" t="n">
+        <v>170.2303246449981</v>
+      </c>
+      <c r="G97" t="n">
+        <v>113.3695689494662</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n"/>
+      <c r="B98" s="1" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>113.3968069831827</v>
+      </c>
+      <c r="D98" t="n">
+        <v>152.3763537819891</v>
+      </c>
+      <c r="E98" t="n">
+        <v>180.575005583734</v>
+      </c>
+      <c r="F98" t="n">
+        <v>163.9732805224417</v>
+      </c>
+      <c r="G98" t="n">
+        <v>115.4838789690794</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="1" t="inlineStr">
+        <is>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>115.5324064068699</v>
+      </c>
+      <c r="D99" t="n">
+        <v>159.3722640033668</v>
+      </c>
+      <c r="E99" t="n">
+        <v>185.9353026512492</v>
+      </c>
+      <c r="F99" t="n">
+        <v>171.9603800796032</v>
+      </c>
+      <c r="G99" t="n">
+        <v>113.657233553251</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n"/>
+      <c r="B100" s="1" t="inlineStr">
+        <is>
+          <t>meteorological_only</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>231.0907563684192</v>
+      </c>
+      <c r="D100" t="n">
+        <v>207.2446035602807</v>
+      </c>
+      <c r="E100" t="n">
+        <v>221.471553075363</v>
+      </c>
+      <c r="F100" t="n">
+        <v>220.1638501407005</v>
+      </c>
+      <c r="G100" t="n">
+        <v>229.3651492744456</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>R² Score (All)</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0.9296600177078258</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.8184168749396513</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.7447701706862107</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.8148016182713763</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.9282760575128042</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n"/>
+      <c r="B102" s="1" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0.9304799867462114</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.8024000528084902</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.7298231586999571</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.8063475566905722</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.9293220427406121</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n"/>
+      <c r="B103" s="1" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0.9273894166433158</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.8072533844757751</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.7326536520270176</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.8035502021831975</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.9249351012143655</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n"/>
+      <c r="B104" s="1" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0.9302538132265451</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.8004255997871542</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.7347354924135198</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.8158221321900576</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.9304641018482044</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n"/>
+      <c r="B105" s="1" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0.9290131647813945</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.8009782884637148</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.7325474176154996</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.8083467020643379</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.9261614476311861</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n"/>
+      <c r="B106" s="1" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0.9287398777428439</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.7975992997503834</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.733670091730771</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.807616496529333</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.9296178368972475</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n"/>
+      <c r="B107" s="1" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0.9285336503376814</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.8150945123765931</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.7491105921833234</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.8215352489617274</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.9258629992172406</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n"/>
+      <c r="B108" s="1" t="inlineStr">
+        <is>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0.9269066824273864</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.79738966587958</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.7336411692731926</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.803756577780097</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.9292753385860381</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n"/>
+      <c r="B109" s="1" t="inlineStr">
+        <is>
+          <t>meteorological_only</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0.5739255045931921</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.6151544443999433</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.6167249944299861</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.6748707061113477</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.5995382512708589</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>R² Score (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0.839545795088285</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.6446177126670113</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.5385702791452844</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.6682794945223407</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.8395300937084998</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n"/>
+      <c r="B111" s="1" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0.8398890652510638</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.6135491593194738</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.5114690637457597</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.6527183043079742</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.837085347695824</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n"/>
+      <c r="B112" s="1" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0.8349128675819683</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.625603267371075</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.516980722051728</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.6481924183347696</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.8320366921527038</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n"/>
+      <c r="B113" s="1" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0.8396967133964253</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.6095345382790401</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.5199461483225445</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.6701642825518049</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.8400088299198019</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n"/>
+      <c r="B114" s="1" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0.8364506010017294</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.611616326056263</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.5151841677228921</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.6565526323693163</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.8297533279318583</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n"/>
+      <c r="B115" s="1" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0.8357532822456294</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.6040268455086477</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.5176864779372155</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.6552924475057118</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.8377687487043246</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n"/>
+      <c r="B116" s="1" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0.8376907843763557</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.6376313375736522</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.5451818106638548</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.6801671154514796</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.8316611899298086</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n"/>
+      <c r="B117" s="1" t="inlineStr">
+        <is>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0.8315196850277682</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.603593321202621</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.5177788426506793</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.6482502991293828</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.8369444111483977</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n"/>
+      <c r="B118" s="1" t="inlineStr">
+        <is>
+          <t>meteorological_only</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0.3259273982051009</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.3296803660497236</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.3158387805023216</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.4234075294224665</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.3359567182922387</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="A50:A57"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A66:A73"/>
+  <mergeCells count="13">
+    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A74:A82"/>
+    <mergeCell ref="A83:A91"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A92:A100"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A110:A118"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2207,7 +3442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2264,16 +3499,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>50.50367475755775</v>
+        <v>50.94734497693592</v>
       </c>
       <c r="D2" t="n">
-        <v>15.05067714610748</v>
+        <v>14.02080827314464</v>
       </c>
       <c r="E2" t="n">
-        <v>34.8607097413032</v>
+        <v>34.4118663949735</v>
       </c>
       <c r="F2" t="n">
-        <v>68.62596081217902</v>
+        <v>67.90762399474092</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -2291,16 +3526,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50.761481280623</v>
+        <v>50.5820316157406</v>
       </c>
       <c r="D3" t="n">
-        <v>16.15480370456869</v>
+        <v>16.34904063852818</v>
       </c>
       <c r="E3" t="n">
-        <v>33.84681523317307</v>
+        <v>32.66470013244437</v>
       </c>
       <c r="F3" t="n">
-        <v>69.73589307189862</v>
+        <v>69.81780501130299</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -2318,16 +3553,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>51.89976550237628</v>
+        <v>52.18514077386194</v>
       </c>
       <c r="D4" t="n">
-        <v>15.33840392124528</v>
+        <v>16.11037270845125</v>
       </c>
       <c r="E4" t="n">
-        <v>35.87251596014961</v>
+        <v>34.44766782375269</v>
       </c>
       <c r="F4" t="n">
-        <v>69.47813388439459</v>
+        <v>69.66806846754898</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -2345,16 +3580,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>50.50093921703019</v>
+        <v>50.46019921824614</v>
       </c>
       <c r="D5" t="n">
-        <v>14.9257624890157</v>
+        <v>15.56942897903972</v>
       </c>
       <c r="E5" t="n">
-        <v>33.59776544315747</v>
+        <v>33.96556043962525</v>
       </c>
       <c r="F5" t="n">
-        <v>67.75917163907873</v>
+        <v>68.04116242162419</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -2372,16 +3607,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>51.66005356045781</v>
+        <v>52.13702805414184</v>
       </c>
       <c r="D6" t="n">
-        <v>14.10806125124425</v>
+        <v>15.04524431901495</v>
       </c>
       <c r="E6" t="n">
-        <v>36.16455809677689</v>
+        <v>34.26146282283177</v>
       </c>
       <c r="F6" t="n">
-        <v>68.22831705301645</v>
+        <v>69.74049999586293</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
@@ -2399,16 +3634,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>51.84276016160296</v>
+        <v>50.89803787685285</v>
       </c>
       <c r="D7" t="n">
-        <v>15.67441938898888</v>
+        <v>16.52880131351433</v>
       </c>
       <c r="E7" t="n">
-        <v>33.87963511484962</v>
+        <v>33.6151036897603</v>
       </c>
       <c r="F7" t="n">
-        <v>69.3799298531908</v>
+        <v>69.99206110691944</v>
       </c>
       <c r="G7" t="n">
         <v>5</v>
@@ -2426,16 +3661,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>49.89659522474322</v>
+        <v>50.28578948256755</v>
       </c>
       <c r="D8" t="n">
-        <v>14.92792537840772</v>
+        <v>15.42981351220023</v>
       </c>
       <c r="E8" t="n">
-        <v>33.96424857883014</v>
+        <v>34.16958156471173</v>
       </c>
       <c r="F8" t="n">
-        <v>66.07117096704192</v>
+        <v>68.75272010086657</v>
       </c>
       <c r="G8" t="n">
         <v>5</v>
@@ -2453,16 +3688,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>51.54485344130961</v>
+        <v>51.92478541394743</v>
       </c>
       <c r="D9" t="n">
-        <v>15.36467369357669</v>
+        <v>14.79707687522328</v>
       </c>
       <c r="E9" t="n">
-        <v>35.27669546474907</v>
+        <v>35.24180295403904</v>
       </c>
       <c r="F9" t="n">
-        <v>68.92218628954474</v>
+        <v>69.5058187064667</v>
       </c>
       <c r="G9" t="n">
         <v>5</v>
@@ -2471,25 +3706,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mean Absolute Error (Non-zero)</t>
+          <t>Mean Absolute Error (All)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Precipitable Water</t>
+          <t>meteorological_only</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>98.53679651796311</v>
+        <v>105.6532512140196</v>
       </c>
       <c r="D10" t="n">
-        <v>30.39271516020599</v>
+        <v>17.55857566157072</v>
       </c>
       <c r="E10" t="n">
-        <v>65.31144619213279</v>
+        <v>90.22941443836353</v>
       </c>
       <c r="F10" t="n">
-        <v>133.744216092761</v>
+        <v>127.088687101057</v>
       </c>
       <c r="G10" t="n">
         <v>5</v>
@@ -2503,20 +3738,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pressure</t>
+          <t>Precipitable Water</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>99.87446895106589</v>
+        <v>97.95266511664829</v>
       </c>
       <c r="D11" t="n">
-        <v>30.84636285226188</v>
+        <v>31.11114122096991</v>
       </c>
       <c r="E11" t="n">
-        <v>67.36300448845961</v>
+        <v>65.5733037918426</v>
       </c>
       <c r="F11" t="n">
-        <v>134.5352236392059</v>
+        <v>132.9062428631149</v>
       </c>
       <c r="G11" t="n">
         <v>5</v>
@@ -2530,20 +3765,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Relative Humidity</t>
+          <t>Pressure</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>101.0032237573251</v>
+        <v>99.92804424145145</v>
       </c>
       <c r="D12" t="n">
-        <v>30.50836893682307</v>
+        <v>30.99292149863468</v>
       </c>
       <c r="E12" t="n">
-        <v>69.13236875932736</v>
+        <v>66.82288791041471</v>
       </c>
       <c r="F12" t="n">
-        <v>135.62163340284</v>
+        <v>134.6720420226073</v>
       </c>
       <c r="G12" t="n">
         <v>5</v>
@@ -2557,20 +3792,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>Relative Humidity</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>99.23092520856767</v>
+        <v>101.4160153382097</v>
       </c>
       <c r="D13" t="n">
-        <v>30.061615944583</v>
+        <v>31.05373151548844</v>
       </c>
       <c r="E13" t="n">
-        <v>67.22741061215362</v>
+        <v>68.67927253161842</v>
       </c>
       <c r="F13" t="n">
-        <v>134.1201089531114</v>
+        <v>136.325899959861</v>
       </c>
       <c r="G13" t="n">
         <v>5</v>
@@ -2584,20 +3819,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Wind Direction</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>101.7833038314276</v>
+        <v>99.29500624610304</v>
       </c>
       <c r="D14" t="n">
-        <v>28.58802504047422</v>
+        <v>29.90712399628472</v>
       </c>
       <c r="E14" t="n">
-        <v>71.59817138500952</v>
+        <v>68.1384345930902</v>
       </c>
       <c r="F14" t="n">
-        <v>134.7471132250655</v>
+        <v>133.6890195451972</v>
       </c>
       <c r="G14" t="n">
         <v>5</v>
@@ -2611,20 +3846,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Wind Direction</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>102.3133062684496</v>
+        <v>102.4587314140273</v>
       </c>
       <c r="D15" t="n">
-        <v>30.22648772075473</v>
+        <v>28.053793486979</v>
       </c>
       <c r="E15" t="n">
-        <v>67.65448730086831</v>
+        <v>68.67199699205764</v>
       </c>
       <c r="F15" t="n">
-        <v>137.0861457514066</v>
+        <v>135.1317781139365</v>
       </c>
       <c r="G15" t="n">
         <v>5</v>
@@ -2638,20 +3873,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>98.51437264353068</v>
+        <v>101.2514225530977</v>
       </c>
       <c r="D16" t="n">
-        <v>29.18322060385906</v>
+        <v>31.68991522141403</v>
       </c>
       <c r="E16" t="n">
-        <v>67.8831179812093</v>
+        <v>68.24661327605688</v>
       </c>
       <c r="F16" t="n">
-        <v>131.5042845271406</v>
+        <v>137.7384702032211</v>
       </c>
       <c r="G16" t="n">
         <v>5</v>
@@ -2665,20 +3900,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ghi_only</t>
+          <t>all</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>101.5388685286571</v>
+        <v>98.64348645123225</v>
       </c>
       <c r="D17" t="n">
-        <v>30.58953636424003</v>
+        <v>29.57241010630798</v>
       </c>
       <c r="E17" t="n">
-        <v>69.78021804707535</v>
+        <v>66.75784861382641</v>
       </c>
       <c r="F17" t="n">
-        <v>135.0425437262772</v>
+        <v>132.2969126794722</v>
       </c>
       <c r="G17" t="n">
         <v>5</v>
@@ -2687,25 +3922,25 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Mean Squared Error (All)</t>
+          <t>Mean Absolute Error (Non-zero)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Precipitable Water</t>
+          <t>ghi_only</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>10698.09812388554</v>
+        <v>103.6411787470731</v>
       </c>
       <c r="D18" t="n">
-        <v>4499.219819937543</v>
+        <v>28.1080659656878</v>
       </c>
       <c r="E18" t="n">
-        <v>6100.426762548649</v>
+        <v>71.75749226654257</v>
       </c>
       <c r="F18" t="n">
-        <v>16422.24082636627</v>
+        <v>136.5134724618075</v>
       </c>
       <c r="G18" t="n">
         <v>5</v>
@@ -2714,25 +3949,25 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Mean Squared Error (All)</t>
+          <t>Mean Absolute Error (Non-zero)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pressure</t>
+          <t>meteorological_only</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>11225.90887143637</v>
+        <v>171.1777759133728</v>
       </c>
       <c r="D19" t="n">
-        <v>4784.402749732612</v>
+        <v>8.224193971482524</v>
       </c>
       <c r="E19" t="n">
-        <v>6276.833991550429</v>
+        <v>158.0201543982271</v>
       </c>
       <c r="F19" t="n">
-        <v>17089.80605634955</v>
+        <v>179.2314407169206</v>
       </c>
       <c r="G19" t="n">
         <v>5</v>
@@ -2741,25 +3976,29 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Mean Squared Error (All)</t>
+          <t>Mean Absolute Percentage Error (All)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Relative Humidity</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>11367.94338331043</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4614.145258693665</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6597.221926614927</v>
-      </c>
-      <c r="F20" t="n">
-        <v>17028.8563689049</v>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G20" t="n">
         <v>5</v>
@@ -2768,25 +4007,29 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Mean Squared Error (All)</t>
+          <t>Mean Absolute Percentage Error (All)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Temperature</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>10990.47280064269</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4614.943199713381</v>
-      </c>
-      <c r="E21" t="n">
-        <v>6212.285326845057</v>
-      </c>
-      <c r="F21" t="n">
-        <v>16756.16366047525</v>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G21" t="n">
         <v>5</v>
@@ -2795,25 +4038,29 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Mean Squared Error (All)</t>
+          <t>Mean Absolute Percentage Error (All)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Wind Direction</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>11212.41117968808</v>
-      </c>
-      <c r="D22" t="n">
-        <v>4840.408299445995</v>
-      </c>
-      <c r="E22" t="n">
-        <v>6255.033110148001</v>
-      </c>
-      <c r="F22" t="n">
-        <v>17221.16889188847</v>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G22" t="n">
         <v>5</v>
@@ -2822,25 +4069,29 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Mean Squared Error (All)</t>
+          <t>Mean Absolute Percentage Error (All)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>11218.12002009872</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4734.236886942731</v>
-      </c>
-      <c r="E23" t="n">
-        <v>6320.583112605092</v>
-      </c>
-      <c r="F23" t="n">
-        <v>17004.48890527768</v>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G23" t="n">
         <v>5</v>
@@ -2849,25 +4100,29 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Mean Squared Error (All)</t>
+          <t>Mean Absolute Percentage Error (All)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>10689.41006806415</v>
-      </c>
-      <c r="D24" t="n">
-        <v>4230.638566222236</v>
-      </c>
-      <c r="E24" t="n">
-        <v>6374.989102457471</v>
-      </c>
-      <c r="F24" t="n">
-        <v>16154.12170568053</v>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G24" t="n">
         <v>5</v>
@@ -2876,25 +4131,29 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Mean Squared Error (All)</t>
+          <t>Mean Absolute Percentage Error (All)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ghi_only</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>11444.60054288952</v>
-      </c>
-      <c r="D25" t="n">
-        <v>4816.362935707807</v>
-      </c>
-      <c r="E25" t="n">
-        <v>6459.966131851416</v>
-      </c>
-      <c r="F25" t="n">
-        <v>17136.76374353049</v>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G25" t="n">
         <v>5</v>
@@ -2903,25 +4162,29 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Mean Squared Error (Non-zero)</t>
+          <t>Mean Absolute Percentage Error (All)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Precipitable Water</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>21755.16647376354</v>
-      </c>
-      <c r="D26" t="n">
-        <v>9111.225399655532</v>
-      </c>
-      <c r="E26" t="n">
-        <v>12446.06810382608</v>
-      </c>
-      <c r="F26" t="n">
-        <v>33268.8442779171</v>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G26" t="n">
         <v>5</v>
@@ -2930,25 +4193,29 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Mean Squared Error (Non-zero)</t>
+          <t>Mean Absolute Percentage Error (All)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Pressure</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>22903.68937397634</v>
-      </c>
-      <c r="D27" t="n">
-        <v>9631.381356010774</v>
-      </c>
-      <c r="E27" t="n">
-        <v>12938.29562911424</v>
-      </c>
-      <c r="F27" t="n">
-        <v>34666.14448502759</v>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G27" t="n">
         <v>5</v>
@@ -2957,25 +4224,29 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Mean Squared Error (Non-zero)</t>
+          <t>Mean Absolute Percentage Error (All)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Relative Humidity</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>22979.40802699192</v>
-      </c>
-      <c r="D28" t="n">
-        <v>9495.016077960388</v>
-      </c>
-      <c r="E28" t="n">
-        <v>13202.76488765772</v>
-      </c>
-      <c r="F28" t="n">
-        <v>34520.48531468322</v>
+          <t>meteorological_only</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G28" t="n">
         <v>5</v>
@@ -2984,25 +4255,25 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Mean Squared Error (Non-zero)</t>
+          <t>Mean Absolute Percentage Error (Non-zero)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>Precipitable Water</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>22405.54249018251</v>
+        <v>109.4485870136928</v>
       </c>
       <c r="D29" t="n">
-        <v>9312.397731044683</v>
+        <v>49.74023091134802</v>
       </c>
       <c r="E29" t="n">
-        <v>12733.11269413704</v>
+        <v>54.51674895995997</v>
       </c>
       <c r="F29" t="n">
-        <v>34004.94686076825</v>
+        <v>170.3024081892406</v>
       </c>
       <c r="G29" t="n">
         <v>5</v>
@@ -3011,25 +4282,25 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Mean Squared Error (Non-zero)</t>
+          <t>Mean Absolute Percentage Error (Non-zero)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Wind Direction</t>
+          <t>Pressure</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>22869.38614588617</v>
+        <v>100.8153816983322</v>
       </c>
       <c r="D30" t="n">
-        <v>9762.345973679669</v>
+        <v>50.31535202834343</v>
       </c>
       <c r="E30" t="n">
-        <v>12884.24157226981</v>
+        <v>51.37838391668147</v>
       </c>
       <c r="F30" t="n">
-        <v>34973.31841069138</v>
+        <v>168.4053881943968</v>
       </c>
       <c r="G30" t="n">
         <v>5</v>
@@ -3038,25 +4309,25 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Mean Squared Error (Non-zero)</t>
+          <t>Mean Absolute Percentage Error (Non-zero)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Relative Humidity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>22880.60368861202</v>
+        <v>102.0538870731331</v>
       </c>
       <c r="D31" t="n">
-        <v>9523.621982580828</v>
+        <v>47.6441190409658</v>
       </c>
       <c r="E31" t="n">
-        <v>13027.5842893786</v>
+        <v>52.09825863992005</v>
       </c>
       <c r="F31" t="n">
-        <v>34509.62547314659</v>
+        <v>161.7750272880174</v>
       </c>
       <c r="G31" t="n">
         <v>5</v>
@@ -3065,25 +4336,25 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Mean Squared Error (Non-zero)</t>
+          <t>Mean Absolute Percentage Error (Non-zero)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>21755.4949521523</v>
+        <v>109.1839920415145</v>
       </c>
       <c r="D32" t="n">
-        <v>8603.187442992981</v>
+        <v>54.22880765294094</v>
       </c>
       <c r="E32" t="n">
-        <v>12959.47197464072</v>
+        <v>52.47367081280585</v>
       </c>
       <c r="F32" t="n">
-        <v>32819.65191876438</v>
+        <v>174.6805551915696</v>
       </c>
       <c r="G32" t="n">
         <v>5</v>
@@ -3092,25 +4363,25 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Mean Squared Error (Non-zero)</t>
+          <t>Mean Absolute Percentage Error (Non-zero)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ghi_only</t>
+          <t>Wind Direction</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>23339.21438413913</v>
+        <v>91.34731242100068</v>
       </c>
       <c r="D33" t="n">
-        <v>9696.516330683802</v>
+        <v>42.0282758935218</v>
       </c>
       <c r="E33" t="n">
-        <v>13310.74253851978</v>
+        <v>47.31433368050971</v>
       </c>
       <c r="F33" t="n">
-        <v>34760.31442339295</v>
+        <v>140.81137644248</v>
       </c>
       <c r="G33" t="n">
         <v>5</v>
@@ -3119,25 +4390,25 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Non-zero Values Percentage</t>
+          <t>Mean Absolute Percentage Error (Non-zero)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Precipitable Water</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>48.79578754578755</v>
+        <v>90.69127095291725</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3065543725507394</v>
+        <v>41.61541938561949</v>
       </c>
       <c r="E34" t="n">
-        <v>48.46611721611722</v>
+        <v>47.89946124507022</v>
       </c>
       <c r="F34" t="n">
-        <v>49.10714285714285</v>
+        <v>142.6985797475827</v>
       </c>
       <c r="G34" t="n">
         <v>5</v>
@@ -3146,25 +4417,25 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Non-zero Values Percentage</t>
+          <t>Mean Absolute Percentage Error (Non-zero)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pressure</t>
+          <t>all</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>48.79578754578755</v>
+        <v>104.9182396692662</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3065543725507394</v>
+        <v>45.64542673515706</v>
       </c>
       <c r="E35" t="n">
-        <v>48.46611721611722</v>
+        <v>56.610699291381</v>
       </c>
       <c r="F35" t="n">
-        <v>49.10714285714285</v>
+        <v>161.6989472010773</v>
       </c>
       <c r="G35" t="n">
         <v>5</v>
@@ -3173,25 +4444,25 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Non-zero Values Percentage</t>
+          <t>Mean Absolute Percentage Error (Non-zero)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Relative Humidity</t>
+          <t>ghi_only</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>48.79578754578755</v>
+        <v>93.58827041021189</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3065543725507394</v>
+        <v>44.40868114657763</v>
       </c>
       <c r="E36" t="n">
-        <v>48.46611721611722</v>
+        <v>47.940486482251</v>
       </c>
       <c r="F36" t="n">
-        <v>49.10714285714285</v>
+        <v>148.9263474894729</v>
       </c>
       <c r="G36" t="n">
         <v>5</v>
@@ -3200,25 +4471,25 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Non-zero Values Percentage</t>
+          <t>Mean Absolute Percentage Error (Non-zero)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>meteorological_only</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>48.79578754578755</v>
+        <v>182.8379666424648</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3065543725507394</v>
+        <v>43.27346231000647</v>
       </c>
       <c r="E37" t="n">
-        <v>48.46611721611722</v>
+        <v>133.1040767308596</v>
       </c>
       <c r="F37" t="n">
-        <v>49.10714285714285</v>
+        <v>252.0297428040548</v>
       </c>
       <c r="G37" t="n">
         <v>5</v>
@@ -3227,25 +4498,25 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Non-zero Values Percentage</t>
+          <t>Mean Squared Error (All)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Wind Direction</t>
+          <t>Precipitable Water</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>48.79578754578755</v>
+        <v>10756.03221384249</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3065543725507394</v>
+        <v>4463.993560714324</v>
       </c>
       <c r="E38" t="n">
-        <v>48.46611721611722</v>
+        <v>6230.177897802608</v>
       </c>
       <c r="F38" t="n">
-        <v>49.10714285714285</v>
+        <v>16336.20651322859</v>
       </c>
       <c r="G38" t="n">
         <v>5</v>
@@ -3254,25 +4525,25 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Non-zero Values Percentage</t>
+          <t>Mean Squared Error (All)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Pressure</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>48.79578754578755</v>
+        <v>11236.51396193238</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3065543725507394</v>
+        <v>4936.877837836098</v>
       </c>
       <c r="E39" t="n">
-        <v>48.46611721611722</v>
+        <v>6157.551308864711</v>
       </c>
       <c r="F39" t="n">
-        <v>49.10714285714285</v>
+        <v>17292.90297468702</v>
       </c>
       <c r="G39" t="n">
         <v>5</v>
@@ -3281,25 +4552,25 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Non-zero Values Percentage</t>
+          <t>Mean Squared Error (All)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Relative Humidity</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>48.79578754578755</v>
+        <v>11314.24448456912</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3065543725507394</v>
+        <v>4735.849056346557</v>
       </c>
       <c r="E40" t="n">
-        <v>48.46611721611722</v>
+        <v>6431.290381852968</v>
       </c>
       <c r="F40" t="n">
-        <v>49.10714285714285</v>
+        <v>17111.73479520935</v>
       </c>
       <c r="G40" t="n">
         <v>5</v>
@@ -3308,25 +4579,25 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Non-zero Values Percentage</t>
+          <t>Mean Squared Error (All)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ghi_only</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>48.79578754578755</v>
+        <v>11041.82923453216</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3065543725507394</v>
+        <v>4765.898975091136</v>
       </c>
       <c r="E41" t="n">
-        <v>48.46611721611722</v>
+        <v>6158.958271693629</v>
       </c>
       <c r="F41" t="n">
-        <v>49.10714285714285</v>
+        <v>16978.48479628518</v>
       </c>
       <c r="G41" t="n">
         <v>5</v>
@@ -3335,25 +4606,25 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Root Mean Squared Error (All)</t>
+          <t>Mean Squared Error (All)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Precipitable Water</t>
+          <t>Wind Direction</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>101.5073695618204</v>
+        <v>11271.6112512822</v>
       </c>
       <c r="D42" t="n">
-        <v>22.20225350402427</v>
+        <v>4761.369690857197</v>
       </c>
       <c r="E42" t="n">
-        <v>78.10522877854369</v>
+        <v>6287.471184978043</v>
       </c>
       <c r="F42" t="n">
-        <v>128.1492911660703</v>
+        <v>17118.53442082536</v>
       </c>
       <c r="G42" t="n">
         <v>5</v>
@@ -3362,25 +4633,25 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Root Mean Squared Error (All)</t>
+          <t>Mean Squared Error (All)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Pressure</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>103.8928829043669</v>
+        <v>11253.27138892108</v>
       </c>
       <c r="D43" t="n">
-        <v>23.24268038694879</v>
+        <v>4831.27100885553</v>
       </c>
       <c r="E43" t="n">
-        <v>79.22647279508554</v>
+        <v>6233.913951540642</v>
       </c>
       <c r="F43" t="n">
-        <v>130.7279849777757</v>
+        <v>17046.6766907025</v>
       </c>
       <c r="G43" t="n">
         <v>5</v>
@@ -3389,25 +4660,25 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Root Mean Squared Error (All)</t>
+          <t>Mean Squared Error (All)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Relative Humidity</t>
+          <t>all</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>104.7622372410503</v>
+        <v>10704.67520481212</v>
       </c>
       <c r="D44" t="n">
-        <v>22.15900019067668</v>
+        <v>4228.104272098251</v>
       </c>
       <c r="E44" t="n">
-        <v>81.22328438702124</v>
+        <v>6329.942908620073</v>
       </c>
       <c r="F44" t="n">
-        <v>130.4946603080176</v>
+        <v>16058.39407209689</v>
       </c>
       <c r="G44" t="n">
         <v>5</v>
@@ -3416,25 +4687,25 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Root Mean Squared Error (All)</t>
+          <t>Mean Squared Error (All)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>ghi_only</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>102.860830301112</v>
+        <v>11351.76336981985</v>
       </c>
       <c r="D45" t="n">
-        <v>22.64184153311398</v>
+        <v>4828.312364234931</v>
       </c>
       <c r="E45" t="n">
-        <v>78.81805203660554</v>
+        <v>6264.249833623585</v>
       </c>
       <c r="F45" t="n">
-        <v>129.4456011630957</v>
+        <v>17048.52789767601</v>
       </c>
       <c r="G45" t="n">
         <v>5</v>
@@ -3443,25 +4714,25 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Root Mean Squared Error (All)</t>
+          <t>Mean Squared Error (All)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Wind Direction</t>
+          <t>meteorological_only</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>103.776584243283</v>
+        <v>29091.12260595973</v>
       </c>
       <c r="D46" t="n">
-        <v>23.52742395814037</v>
+        <v>6911.413454960835</v>
       </c>
       <c r="E46" t="n">
-        <v>79.08876728175753</v>
+        <v>23710.44983333598</v>
       </c>
       <c r="F46" t="n">
-        <v>131.229451312914</v>
+        <v>37738.42155766685</v>
       </c>
       <c r="G46" t="n">
         <v>5</v>
@@ -3470,25 +4741,25 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Root Mean Squared Error (All)</t>
+          <t>Mean Squared Error (Non-zero)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>Precipitable Water</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>103.8945428923172</v>
+        <v>21832.76373582517</v>
       </c>
       <c r="D47" t="n">
-        <v>23.0229227427571</v>
+        <v>9088.699000373301</v>
       </c>
       <c r="E47" t="n">
-        <v>79.50209502022631</v>
+        <v>12711.87388777668</v>
       </c>
       <c r="F47" t="n">
-        <v>130.40126113377</v>
+        <v>33081.33392944478</v>
       </c>
       <c r="G47" t="n">
         <v>5</v>
@@ -3497,25 +4768,25 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Root Mean Squared Error (All)</t>
+          <t>Mean Squared Error (Non-zero)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Pressure</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>101.7004996601331</v>
+        <v>22914.43021204324</v>
       </c>
       <c r="D48" t="n">
-        <v>20.80920580366478</v>
+        <v>9928.546485509722</v>
       </c>
       <c r="E48" t="n">
-        <v>79.84352887026894</v>
+        <v>12684.6785455226</v>
       </c>
       <c r="F48" t="n">
-        <v>127.0988658709453</v>
+        <v>35024.30447513222</v>
       </c>
       <c r="G48" t="n">
         <v>5</v>
@@ -3524,25 +4795,25 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Root Mean Squared Error (All)</t>
+          <t>Mean Squared Error (Non-zero)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ghi_only</t>
+          <t>Relative Humidity</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>104.9348050666048</v>
+        <v>22915.8661958272</v>
       </c>
       <c r="D49" t="n">
-        <v>23.27249526058566</v>
+        <v>9641.067819699503</v>
       </c>
       <c r="E49" t="n">
-        <v>80.37391449874403</v>
+        <v>13078.91437901164</v>
       </c>
       <c r="F49" t="n">
-        <v>130.9074625204021</v>
+        <v>34629.15652370204</v>
       </c>
       <c r="G49" t="n">
         <v>5</v>
@@ -3551,25 +4822,25 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Root Mean Squared Error (Non-zero)</t>
+          <t>Mean Squared Error (Non-zero)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Precipitable Water</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>144.7721939430524</v>
+        <v>22507.72846532484</v>
       </c>
       <c r="D50" t="n">
-        <v>31.54715388665741</v>
+        <v>9594.927113160138</v>
       </c>
       <c r="E50" t="n">
-        <v>111.5619473827258</v>
+        <v>12675.19027211745</v>
       </c>
       <c r="F50" t="n">
-        <v>182.3974897796489</v>
+        <v>34416.55587776551</v>
       </c>
       <c r="G50" t="n">
         <v>5</v>
@@ -3578,25 +4849,25 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Root Mean Squared Error (Non-zero)</t>
+          <t>Mean Squared Error (Non-zero)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Pressure</t>
+          <t>Wind Direction</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>148.4808960792496</v>
+        <v>22992.11887619997</v>
       </c>
       <c r="D51" t="n">
-        <v>32.7321110203615</v>
+        <v>9586.891046409695</v>
       </c>
       <c r="E51" t="n">
-        <v>113.7466290890162</v>
+        <v>12957.08850778702</v>
       </c>
       <c r="F51" t="n">
-        <v>186.1884649623268</v>
+        <v>34757.95709936613</v>
       </c>
       <c r="G51" t="n">
         <v>5</v>
@@ -3605,25 +4876,25 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Root Mean Squared Error (Non-zero)</t>
+          <t>Mean Squared Error (Non-zero)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Relative Humidity</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>148.8417854997151</v>
+        <v>22958.73102201057</v>
       </c>
       <c r="D52" t="n">
-        <v>32.12341272827209</v>
+        <v>9722.943291370899</v>
       </c>
       <c r="E52" t="n">
-        <v>114.9032849297953</v>
+        <v>12852.65916378776</v>
       </c>
       <c r="F52" t="n">
-        <v>185.7968926400095</v>
+        <v>34578.55868601349</v>
       </c>
       <c r="G52" t="n">
         <v>5</v>
@@ -3632,25 +4903,25 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Root Mean Squared Error (Non-zero)</t>
+          <t>Mean Squared Error (Non-zero)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>all</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>146.9243153799918</v>
+        <v>21781.6969388954</v>
       </c>
       <c r="D53" t="n">
-        <v>31.99195290036234</v>
+        <v>8606.158233459322</v>
       </c>
       <c r="E53" t="n">
-        <v>112.8410948818605</v>
+        <v>12858.83583398118</v>
       </c>
       <c r="F53" t="n">
-        <v>184.4043027176108</v>
+        <v>32607.33264156556</v>
       </c>
       <c r="G53" t="n">
         <v>5</v>
@@ -3659,25 +4930,25 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Root Mean Squared Error (Non-zero)</t>
+          <t>Mean Squared Error (Non-zero)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Wind Direction</t>
+          <t>ghi_only</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>148.2826514620693</v>
+        <v>23161.50625836649</v>
       </c>
       <c r="D54" t="n">
-        <v>33.19716518892559</v>
+        <v>9714.941558266986</v>
       </c>
       <c r="E54" t="n">
-        <v>113.508773107059</v>
+        <v>12917.96673897824</v>
       </c>
       <c r="F54" t="n">
-        <v>187.0115461961945</v>
+        <v>34571.93677201164</v>
       </c>
       <c r="G54" t="n">
         <v>5</v>
@@ -3686,25 +4957,25 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Root Mean Squared Error (Non-zero)</t>
+          <t>Mean Squared Error (Non-zero)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>meteorological_only</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>148.4617039156554</v>
+        <v>49296.68096317297</v>
       </c>
       <c r="D55" t="n">
-        <v>32.39842123993618</v>
+        <v>4148.668129359927</v>
       </c>
       <c r="E55" t="n">
-        <v>114.1384435209216</v>
+        <v>42950.32570485792</v>
       </c>
       <c r="F55" t="n">
-        <v>185.7676653057431</v>
+        <v>53402.93767892806</v>
       </c>
       <c r="G55" t="n">
         <v>5</v>
@@ -3713,25 +4984,29 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Root Mean Squared Error (Non-zero)</t>
+          <t>Mean Squared Percentage Error (All)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>145.0884279427942</v>
-      </c>
-      <c r="D56" t="n">
-        <v>29.68255020295852</v>
-      </c>
-      <c r="E56" t="n">
-        <v>113.8396766274427</v>
-      </c>
-      <c r="F56" t="n">
-        <v>181.1619494230629</v>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G56" t="n">
         <v>5</v>
@@ -3740,25 +5015,29 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Root Mean Squared Error (Non-zero)</t>
+          <t>Mean Squared Percentage Error (All)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ghi_only</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>149.932615328935</v>
-      </c>
-      <c r="D57" t="n">
-        <v>32.77623462138281</v>
-      </c>
-      <c r="E57" t="n">
-        <v>115.3721913570154</v>
-      </c>
-      <c r="F57" t="n">
-        <v>186.441182208741</v>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G57" t="n">
         <v>5</v>
@@ -3767,25 +5046,29 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>R² Score (All)</t>
+          <t>Mean Squared Percentage Error (All)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Precipitable Water</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0.8478547642822469</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.08086344928489517</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.7434260077656774</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.9311249345538394</v>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G58" t="n">
         <v>5</v>
@@ -3794,25 +5077,29 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>R² Score (All)</t>
+          <t>Mean Squared Percentage Error (All)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Pressure</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0.8400918993626444</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.08571023932718728</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.7329962571643683</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.9291332608700794</v>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G59" t="n">
         <v>5</v>
@@ -3821,25 +5108,29 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>R² Score (All)</t>
+          <t>Mean Squared Percentage Error (All)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Relative Humidity</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0.8385671989885004</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.08345117489445231</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.733948508735786</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.9255160155764881</v>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G60" t="n">
         <v>5</v>
@@ -3848,25 +5139,29 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>R² Score (All)</t>
+          <t>Mean Squared Percentage Error (All)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Temperature</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0.8433478486063972</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.08368074324169425</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.7382089417421425</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.9298620284922625</v>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G61" t="n">
         <v>5</v>
@@ -3875,25 +5170,29 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>R² Score (All)</t>
+          <t>Mean Squared Percentage Error (All)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Wind Direction</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0.8401255144823644</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.08667655970085453</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.7309439010028798</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.9293793972785344</v>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G62" t="n">
         <v>5</v>
@@ -3902,25 +5201,29 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>R² Score (All)</t>
+          <t>Mean Squared Percentage Error (All)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0.8402100870995142</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.08517266764489807</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.7343292154547754</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.9286393243484002</v>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G63" t="n">
         <v>5</v>
@@ -3929,25 +5232,29 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>R² Score (All)</t>
+          <t>Mean Squared Percentage Error (All)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0.8482777317387065</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.07769386276222533</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.7476149850140348</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.9280250695990849</v>
+          <t>meteorological_only</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G64" t="n">
         <v>5</v>
@@ -3956,25 +5263,25 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>R² Score (All)</t>
+          <t>Mean Squared Percentage Error (Non-zero)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ghi_only</t>
+          <t>Precipitable Water</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.8370242072733747</v>
+        <v>1140.502153829138</v>
       </c>
       <c r="D65" t="n">
-        <v>0.08639821212032973</v>
+        <v>848.3043517012925</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7322626105570941</v>
+        <v>356.1470539937011</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9270656615627718</v>
+        <v>2454.738752161098</v>
       </c>
       <c r="G65" t="n">
         <v>5</v>
@@ -3983,25 +5290,25 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>R² Score (Non-zero)</t>
+          <t>Mean Squared Percentage Error (Non-zero)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Precipitable Water</t>
+          <t>Pressure</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.7069826859802661</v>
+        <v>876.8241522442044</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1321350148337261</v>
+        <v>741.1667891266827</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5359548208950975</v>
+        <v>288.5836298765277</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8429008988362652</v>
+        <v>2012.051957089581</v>
       </c>
       <c r="G66" t="n">
         <v>5</v>
@@ -4010,25 +5317,25 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>R² Score (Non-zero)</t>
+          <t>Mean Squared Percentage Error (Non-zero)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Pressure</t>
+          <t>Relative Humidity</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.6912817254370315</v>
+        <v>801.7051817719813</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1401088230261807</v>
+        <v>570.4649150869113</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5164648013604454</v>
+        <v>276.1299646900731</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8366878120087032</v>
+        <v>1686.760015421478</v>
       </c>
       <c r="G67" t="n">
         <v>5</v>
@@ -4037,25 +5344,25 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>R² Score (Non-zero)</t>
+          <t>Mean Squared Percentage Error (Non-zero)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Relative Humidity</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.6906379025091499</v>
+        <v>1094.58027814351</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1372840288557913</v>
+        <v>853.3738336155856</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5184965051138453</v>
+        <v>305.6606174472907</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8333495784030356</v>
+        <v>2372.287023337485</v>
       </c>
       <c r="G68" t="n">
         <v>5</v>
@@ -4064,25 +5371,25 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>R² Score (Non-zero)</t>
+          <t>Mean Squared Percentage Error (Non-zero)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>Wind Direction</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.6974948916357862</v>
+        <v>609.8062243906405</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1376731865703741</v>
+        <v>401.152961917875</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5256874111815151</v>
+        <v>206.2873005394538</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8392777106329238</v>
+        <v>1174.636967621507</v>
       </c>
       <c r="G69" t="n">
         <v>5</v>
@@ -4091,25 +5398,25 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>R² Score (Non-zero)</t>
+          <t>Mean Squared Percentage Error (Non-zero)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Wind Direction</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.6915110941735282</v>
+        <v>573.6650854262627</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1424837331655042</v>
+        <v>369.7614716399991</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5121802347503084</v>
+        <v>219.2076497919687</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8373701032892645</v>
+        <v>1099.640467188447</v>
       </c>
       <c r="G70" t="n">
         <v>5</v>
@@ -4118,25 +5425,25 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>R² Score (Non-zero)</t>
+          <t>Mean Squared Percentage Error (Non-zero)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Wind Speed</t>
+          <t>all</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.6914680767070409</v>
+        <v>974.8124619152846</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1392684827445239</v>
+        <v>641.5151253795756</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5186479818849895</v>
+        <v>396.7526944221051</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8355607758913824</v>
+        <v>1943.383179766045</v>
       </c>
       <c r="G71" t="n">
         <v>5</v>
@@ -4145,25 +5452,25 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>R² Score (Non-zero)</t>
+          <t>Mean Squared Percentage Error (Non-zero)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>ghi_only</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.7068612645549808</v>
+        <v>648.7388998407719</v>
       </c>
       <c r="D72" t="n">
-        <v>0.126746878783052</v>
+        <v>459.3502256058613</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5422203090200919</v>
+        <v>223.1386562029758</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8364205159582245</v>
+        <v>1341.281431726749</v>
       </c>
       <c r="G72" t="n">
         <v>5</v>
@@ -4172,27 +5479,1242 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>Mean Squared Percentage Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>meteorological_only</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>4365.212262029158</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2525.989942230019</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1372.790213228887</v>
+      </c>
+      <c r="F73" t="n">
+        <v>7778.000636425111</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Non-zero Values Percentage</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>48.79578754578755</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.3065543725507394</v>
+      </c>
+      <c r="E74" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="F74" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Non-zero Values Percentage</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>48.79578754578755</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.3065543725507394</v>
+      </c>
+      <c r="E75" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="F75" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Non-zero Values Percentage</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>48.79578754578755</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.3065543725507394</v>
+      </c>
+      <c r="E76" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="F76" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Non-zero Values Percentage</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>48.79578754578755</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.3065543725507394</v>
+      </c>
+      <c r="E77" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="F77" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="G77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Non-zero Values Percentage</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>48.79578754578755</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.3065543725507394</v>
+      </c>
+      <c r="E78" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="F78" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Non-zero Values Percentage</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>48.79578754578755</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.3065543725507394</v>
+      </c>
+      <c r="E79" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="F79" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Non-zero Values Percentage</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>48.79578754578755</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.3065543725507394</v>
+      </c>
+      <c r="E80" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="F80" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="G80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Non-zero Values Percentage</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>48.79578754578755</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.3065543725507394</v>
+      </c>
+      <c r="E81" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="F81" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="G81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Non-zero Values Percentage</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>meteorological_only</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>48.79578754578755</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.3065543725507394</v>
+      </c>
+      <c r="E82" t="n">
+        <v>48.46611721611722</v>
+      </c>
+      <c r="F82" t="n">
+        <v>49.10714285714285</v>
+      </c>
+      <c r="G82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>101.8307178607291</v>
+      </c>
+      <c r="D83" t="n">
+        <v>21.98115993899875</v>
+      </c>
+      <c r="E83" t="n">
+        <v>78.93147596366488</v>
+      </c>
+      <c r="F83" t="n">
+        <v>127.8131703433906</v>
+      </c>
+      <c r="G83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>103.8007197293513</v>
+      </c>
+      <c r="D84" t="n">
+        <v>24.02926719651077</v>
+      </c>
+      <c r="E84" t="n">
+        <v>78.47006632382001</v>
+      </c>
+      <c r="F84" t="n">
+        <v>131.5024827700489</v>
+      </c>
+      <c r="G84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>104.3907672445779</v>
+      </c>
+      <c r="D85" t="n">
+        <v>22.82575843913758</v>
+      </c>
+      <c r="E85" t="n">
+        <v>80.19532643398222</v>
+      </c>
+      <c r="F85" t="n">
+        <v>130.8118297219688</v>
+      </c>
+      <c r="G85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>102.9752843388668</v>
+      </c>
+      <c r="D86" t="n">
+        <v>23.3965822787672</v>
+      </c>
+      <c r="E86" t="n">
+        <v>78.47903077697653</v>
+      </c>
+      <c r="F86" t="n">
+        <v>130.3015149424026</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>104.1379203708211</v>
+      </c>
+      <c r="D87" t="n">
+        <v>23.10045432785671</v>
+      </c>
+      <c r="E87" t="n">
+        <v>79.29357593763849</v>
+      </c>
+      <c r="F87" t="n">
+        <v>130.8378172426663</v>
+      </c>
+      <c r="G87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>103.9628358865836</v>
+      </c>
+      <c r="D88" t="n">
+        <v>23.58495662865316</v>
+      </c>
+      <c r="E88" t="n">
+        <v>78.95513885454602</v>
+      </c>
+      <c r="F88" t="n">
+        <v>130.5629223428402</v>
+      </c>
+      <c r="G88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>101.7678053811748</v>
+      </c>
+      <c r="D89" t="n">
+        <v>20.85632376257422</v>
+      </c>
+      <c r="E89" t="n">
+        <v>79.56093833421066</v>
+      </c>
+      <c r="F89" t="n">
+        <v>126.7217190228135</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>104.4552055036262</v>
+      </c>
+      <c r="D90" t="n">
+        <v>23.4753437944759</v>
+      </c>
+      <c r="E90" t="n">
+        <v>79.14701405374421</v>
+      </c>
+      <c r="F90" t="n">
+        <v>130.5700114791908</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>meteorological_only</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>169.6284519165598</v>
+      </c>
+      <c r="D91" t="n">
+        <v>19.91578853419734</v>
+      </c>
+      <c r="E91" t="n">
+        <v>153.9819789239507</v>
+      </c>
+      <c r="F91" t="n">
+        <v>194.2637937384804</v>
+      </c>
+      <c r="G91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>145.05504998223</v>
+      </c>
+      <c r="D92" t="n">
+        <v>31.46021714955902</v>
+      </c>
+      <c r="E92" t="n">
+        <v>112.7469462459036</v>
+      </c>
+      <c r="F92" t="n">
+        <v>181.8827477509749</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>148.3210298498849</v>
+      </c>
+      <c r="D93" t="n">
+        <v>33.82495965098836</v>
+      </c>
+      <c r="E93" t="n">
+        <v>112.626278219262</v>
+      </c>
+      <c r="F93" t="n">
+        <v>187.1478145080306</v>
+      </c>
+      <c r="G93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>148.5332681699551</v>
+      </c>
+      <c r="D94" t="n">
+        <v>32.66753821799634</v>
+      </c>
+      <c r="E94" t="n">
+        <v>114.3630813637497</v>
+      </c>
+      <c r="F94" t="n">
+        <v>186.0891090948152</v>
+      </c>
+      <c r="G94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>147.0972372033047</v>
+      </c>
+      <c r="D95" t="n">
+        <v>32.97975273708734</v>
+      </c>
+      <c r="E95" t="n">
+        <v>112.584147516946</v>
+      </c>
+      <c r="F95" t="n">
+        <v>185.516996196482</v>
+      </c>
+      <c r="G95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>148.8141240759758</v>
+      </c>
+      <c r="D96" t="n">
+        <v>32.52835977458835</v>
+      </c>
+      <c r="E96" t="n">
+        <v>113.8292076217129</v>
+      </c>
+      <c r="F96" t="n">
+        <v>186.4348602042175</v>
+      </c>
+      <c r="G96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>148.5819417940391</v>
+      </c>
+      <c r="D97" t="n">
+        <v>33.20650528743091</v>
+      </c>
+      <c r="E97" t="n">
+        <v>113.3695689494662</v>
+      </c>
+      <c r="F97" t="n">
+        <v>185.9531088366459</v>
+      </c>
+      <c r="G97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>145.1610651680854</v>
+      </c>
+      <c r="D98" t="n">
+        <v>29.79014304602846</v>
+      </c>
+      <c r="E98" t="n">
+        <v>113.3968069831827</v>
+      </c>
+      <c r="F98" t="n">
+        <v>180.575005583734</v>
+      </c>
+      <c r="G98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>149.291517338868</v>
+      </c>
+      <c r="D99" t="n">
+        <v>33.04446075034672</v>
+      </c>
+      <c r="E99" t="n">
+        <v>113.657233553251</v>
+      </c>
+      <c r="F99" t="n">
+        <v>185.9353026512492</v>
+      </c>
+      <c r="G99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>meteorological_only</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>221.8671824838418</v>
+      </c>
+      <c r="D100" t="n">
+        <v>9.462709697452832</v>
+      </c>
+      <c r="E100" t="n">
+        <v>207.2446035602807</v>
+      </c>
+      <c r="F100" t="n">
+        <v>231.0907563684192</v>
+      </c>
+      <c r="G100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>R² Score (All)</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0.8471849478235736</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.08022308559492039</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.7447701706862107</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.9296600177078258</v>
+      </c>
+      <c r="G101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>R² Score (All)</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0.8396745595371685</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.08782042059200908</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.7298231586999571</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.9304799867462114</v>
+      </c>
+      <c r="G102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>R² Score (All)</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0.8391563513087343</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.08481080393484072</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.7326536520270176</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.9273894166433158</v>
+      </c>
+      <c r="G103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>R² Score (All)</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0.8423402278930961</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.08592648048425168</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.7347354924135198</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.9304641018482044</v>
+      </c>
+      <c r="G104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>R² Score (All)</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0.8394094041112267</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.08575557889622232</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.7325474176154996</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.9290131647813945</v>
+      </c>
+      <c r="G105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>R² Score (All)</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0.8394487205301158</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.08668500896625979</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.733670091730771</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.9296178368972475</v>
+      </c>
+      <c r="G106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>R² Score (All)</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0.8480274006153131</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.07763791095758607</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.7491105921833234</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.9285336503376814</v>
+      </c>
+      <c r="G107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>R² Score (All)</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ghi_only</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0.8381938867892588</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.08652741531903908</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.7336411692731926</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.9292753385860381</v>
+      </c>
+      <c r="G108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>R² Score (All)</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>meteorological_only</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0.6160427801610656</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.03710877188581205</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.5739255045931921</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.6748707061113477</v>
+      </c>
+      <c r="G109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
           <t>R² Score (Non-zero)</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0.7061086750262843</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.1312326554420278</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.5385702791452844</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.839545795088285</v>
+      </c>
+      <c r="G110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>R² Score (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0.6909421880640191</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.1442258158853216</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.5114690637457597</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.8398890652510638</v>
+      </c>
+      <c r="G111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>R² Score (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Relative Humidity</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0.6915451934984489</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.1387377981963552</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.516980722051728</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.8349128675819683</v>
+      </c>
+      <c r="G112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>R² Score (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0.6958701024939233</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.1418854495941565</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.5199461483225445</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.8400088299198019</v>
+      </c>
+      <c r="G113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>R² Score (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Wind Direction</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0.6899114110164118</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.1403584998484553</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.5151841677228921</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.8364506010017294</v>
+      </c>
+      <c r="G114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>R² Score (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Wind Speed</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0.6901055603803058</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.1426249575311646</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.5176864779372155</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.8377687487043246</v>
+      </c>
+      <c r="G115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>R² Score (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0.7064664475990302</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.126822919285951</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.5451818106638548</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.8376907843763557</v>
+      </c>
+      <c r="G116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>R² Score (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t>ghi_only</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>0.6854456977659543</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.1410617036684514</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.5151512869639125</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.8319866425943373</v>
-      </c>
-      <c r="G73" t="n">
+      <c r="C117" t="n">
+        <v>0.6876173118317699</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.1418285707340836</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.5177788426506793</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.8369444111483977</v>
+      </c>
+      <c r="G117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>R² Score (Non-zero)</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>meteorological_only</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0.3461621584943703</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.04379383689099336</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.3158387805023216</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.4234075294224665</v>
+      </c>
+      <c r="G118" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4207,7 +6729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4250,14 +6772,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Precipitable Water</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>98.51437264353068</v>
+        <v>97.95266511664829</v>
       </c>
       <c r="D2" t="n">
-        <v>29.18322060385906</v>
+        <v>31.11114122096991</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -4273,14 +6795,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Precipitable Water</t>
+          <t>all</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21755.16647376354</v>
+        <v>21781.6969388954</v>
       </c>
       <c r="D3" t="n">
-        <v>9111.225399655532</v>
+        <v>8606.158233459322</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -4300,10 +6822,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>144.7721939430524</v>
+        <v>145.05504998223</v>
       </c>
       <c r="D4" t="n">
-        <v>31.54715388665741</v>
+        <v>31.46021714955902</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -4319,14 +6841,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Precipitable Water</t>
+          <t>all</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7069826859802661</v>
+        <v>0.7064664475990302</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1321350148337261</v>
+        <v>0.126822919285951</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -4337,42 +6859,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Non-zero Values Percentage</t>
+          <t>Mean Absolute Percentage Error (Non-zero)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Precipitable Water</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>48.79578754578755</v>
+        <v>90.69127095291725</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3065543725507394</v>
+        <v>41.61541938561949</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>min</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mean Absolute Error (All)</t>
+          <t>Mean Squared Percentage Error (Non-zero)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Wind Speed</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>49.89659522474322</v>
+        <v>573.6650854262627</v>
       </c>
       <c r="D7" t="n">
-        <v>14.92792537840772</v>
+        <v>369.7614716399991</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -4383,42 +6905,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mean Squared Error (All)</t>
+          <t>Non-zero Values Percentage</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Precipitable Water</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10689.41006806415</v>
+        <v>48.79578754578755</v>
       </c>
       <c r="D8" t="n">
-        <v>4230.638566222236</v>
+        <v>0.3065543725507394</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>max</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Root Mean Squared Error (All)</t>
+          <t>Mean Absolute Error (All)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Precipitable Water</t>
+          <t>all</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>101.5073695618204</v>
+        <v>50.28578948256755</v>
       </c>
       <c r="D9" t="n">
-        <v>22.20225350402427</v>
+        <v>15.42981351220023</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -4429,23 +6951,115 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>10704.67520481212</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4228.104272098251</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Root Mean Squared Error (All)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>101.7678053811748</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20.85632376257422</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>R² Score (All)</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>all</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>0.8482777317387065</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.07769386276222533</v>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="C12" t="n">
+        <v>0.8480274006153131</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.07763791095758607</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mean Absolute Percentage Error (All)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Mean Squared Percentage Error (All)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Precipitable Water</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>min</t>
         </is>
       </c>
     </row>
